--- a/portfolio/US-UNEMPLOYMENT-data.xlsx
+++ b/portfolio/US-UNEMPLOYMENT-data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PlayGround\Desktop\gittemp\portfolio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844045BD-3F84-4404-8135-379B0A799BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UEM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="304">
   <si>
     <t>UNEMPLOYMENT_RATE</t>
   </si>
@@ -25,879 +31,922 @@
     <t>YEAR</t>
   </si>
   <si>
+    <t>UEM_CHANGE</t>
+  </si>
+  <si>
+    <t>MA_12M</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>199901</t>
+  </si>
+  <si>
+    <t>199902</t>
+  </si>
+  <si>
+    <t>199903</t>
+  </si>
+  <si>
+    <t>199904</t>
+  </si>
+  <si>
+    <t>199905</t>
+  </si>
+  <si>
+    <t>199906</t>
+  </si>
+  <si>
+    <t>199907</t>
+  </si>
+  <si>
+    <t>199908</t>
+  </si>
+  <si>
+    <t>199909</t>
+  </si>
+  <si>
+    <t>199910</t>
+  </si>
+  <si>
+    <t>199911</t>
+  </si>
+  <si>
+    <t>199912</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>200008</t>
+  </si>
+  <si>
+    <t>200009</t>
+  </si>
+  <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>200011</t>
+  </si>
+  <si>
+    <t>200012</t>
+  </si>
+  <si>
+    <t>200101</t>
+  </si>
+  <si>
+    <t>200102</t>
+  </si>
+  <si>
+    <t>200103</t>
+  </si>
+  <si>
+    <t>200104</t>
+  </si>
+  <si>
+    <t>200105</t>
+  </si>
+  <si>
+    <t>200106</t>
+  </si>
+  <si>
+    <t>200107</t>
+  </si>
+  <si>
+    <t>200108</t>
+  </si>
+  <si>
+    <t>200109</t>
+  </si>
+  <si>
+    <t>200110</t>
+  </si>
+  <si>
+    <t>200111</t>
+  </si>
+  <si>
+    <t>200112</t>
+  </si>
+  <si>
+    <t>200201</t>
+  </si>
+  <si>
+    <t>200202</t>
+  </si>
+  <si>
+    <t>200203</t>
+  </si>
+  <si>
+    <t>200204</t>
+  </si>
+  <si>
+    <t>200205</t>
+  </si>
+  <si>
+    <t>200206</t>
+  </si>
+  <si>
+    <t>200207</t>
+  </si>
+  <si>
+    <t>200208</t>
+  </si>
+  <si>
+    <t>200209</t>
+  </si>
+  <si>
+    <t>200210</t>
+  </si>
+  <si>
+    <t>200211</t>
+  </si>
+  <si>
+    <t>200212</t>
+  </si>
+  <si>
+    <t>200301</t>
+  </si>
+  <si>
+    <t>200302</t>
+  </si>
+  <si>
+    <t>200303</t>
+  </si>
+  <si>
+    <t>200304</t>
+  </si>
+  <si>
+    <t>200305</t>
+  </si>
+  <si>
+    <t>200306</t>
+  </si>
+  <si>
+    <t>200307</t>
+  </si>
+  <si>
+    <t>200308</t>
+  </si>
+  <si>
+    <t>200309</t>
+  </si>
+  <si>
+    <t>200310</t>
+  </si>
+  <si>
+    <t>200311</t>
+  </si>
+  <si>
+    <t>200312</t>
+  </si>
+  <si>
+    <t>200401</t>
+  </si>
+  <si>
+    <t>200402</t>
+  </si>
+  <si>
+    <t>200403</t>
+  </si>
+  <si>
+    <t>200404</t>
+  </si>
+  <si>
+    <t>200405</t>
+  </si>
+  <si>
+    <t>200406</t>
+  </si>
+  <si>
+    <t>200407</t>
+  </si>
+  <si>
+    <t>200408</t>
+  </si>
+  <si>
+    <t>200409</t>
+  </si>
+  <si>
+    <t>200410</t>
+  </si>
+  <si>
+    <t>200411</t>
+  </si>
+  <si>
+    <t>200412</t>
+  </si>
+  <si>
+    <t>200501</t>
+  </si>
+  <si>
+    <t>200502</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>200505</t>
+  </si>
+  <si>
+    <t>200506</t>
+  </si>
+  <si>
+    <t>200507</t>
+  </si>
+  <si>
+    <t>200508</t>
+  </si>
+  <si>
+    <t>200509</t>
+  </si>
+  <si>
+    <t>200510</t>
+  </si>
+  <si>
+    <t>200511</t>
+  </si>
+  <si>
+    <t>200512</t>
+  </si>
+  <si>
+    <t>200601</t>
+  </si>
+  <si>
+    <t>200602</t>
+  </si>
+  <si>
+    <t>200603</t>
+  </si>
+  <si>
+    <t>200604</t>
+  </si>
+  <si>
+    <t>200605</t>
+  </si>
+  <si>
+    <t>200606</t>
+  </si>
+  <si>
+    <t>200607</t>
+  </si>
+  <si>
+    <t>200608</t>
+  </si>
+  <si>
+    <t>200609</t>
+  </si>
+  <si>
+    <t>200610</t>
+  </si>
+  <si>
+    <t>200611</t>
+  </si>
+  <si>
+    <t>200612</t>
+  </si>
+  <si>
+    <t>200701</t>
+  </si>
+  <si>
+    <t>200702</t>
+  </si>
+  <si>
+    <t>200703</t>
+  </si>
+  <si>
+    <t>200704</t>
+  </si>
+  <si>
+    <t>200705</t>
+  </si>
+  <si>
+    <t>200706</t>
+  </si>
+  <si>
+    <t>200707</t>
+  </si>
+  <si>
+    <t>200708</t>
+  </si>
+  <si>
+    <t>200709</t>
+  </si>
+  <si>
+    <t>200710</t>
+  </si>
+  <si>
+    <t>200711</t>
+  </si>
+  <si>
+    <t>200712</t>
+  </si>
+  <si>
+    <t>200801</t>
+  </si>
+  <si>
+    <t>200802</t>
+  </si>
+  <si>
+    <t>200803</t>
+  </si>
+  <si>
+    <t>200804</t>
+  </si>
+  <si>
+    <t>200805</t>
+  </si>
+  <si>
+    <t>200806</t>
+  </si>
+  <si>
+    <t>200807</t>
+  </si>
+  <si>
+    <t>200808</t>
+  </si>
+  <si>
+    <t>200809</t>
+  </si>
+  <si>
+    <t>200810</t>
+  </si>
+  <si>
+    <t>200811</t>
+  </si>
+  <si>
+    <t>200812</t>
+  </si>
+  <si>
+    <t>200901</t>
+  </si>
+  <si>
+    <t>200902</t>
+  </si>
+  <si>
+    <t>200903</t>
+  </si>
+  <si>
+    <t>200904</t>
+  </si>
+  <si>
+    <t>200905</t>
+  </si>
+  <si>
+    <t>200906</t>
+  </si>
+  <si>
+    <t>200907</t>
+  </si>
+  <si>
+    <t>200908</t>
+  </si>
+  <si>
+    <t>200909</t>
+  </si>
+  <si>
+    <t>200910</t>
+  </si>
+  <si>
+    <t>200911</t>
+  </si>
+  <si>
+    <t>200912</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201002</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>201006</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>201008</t>
+  </si>
+  <si>
+    <t>201009</t>
+  </si>
+  <si>
+    <t>201010</t>
+  </si>
+  <si>
+    <t>201011</t>
+  </si>
+  <si>
+    <t>201012</t>
+  </si>
+  <si>
+    <t>201101</t>
+  </si>
+  <si>
+    <t>201102</t>
+  </si>
+  <si>
+    <t>201103</t>
+  </si>
+  <si>
+    <t>201104</t>
+  </si>
+  <si>
+    <t>201105</t>
+  </si>
+  <si>
+    <t>201106</t>
+  </si>
+  <si>
+    <t>201107</t>
+  </si>
+  <si>
+    <t>201108</t>
+  </si>
+  <si>
+    <t>201109</t>
+  </si>
+  <si>
+    <t>201110</t>
+  </si>
+  <si>
+    <t>201111</t>
+  </si>
+  <si>
+    <t>201112</t>
+  </si>
+  <si>
+    <t>201201</t>
+  </si>
+  <si>
+    <t>201202</t>
+  </si>
+  <si>
+    <t>201203</t>
+  </si>
+  <si>
+    <t>201204</t>
+  </si>
+  <si>
+    <t>201205</t>
+  </si>
+  <si>
+    <t>201206</t>
+  </si>
+  <si>
+    <t>201207</t>
+  </si>
+  <si>
+    <t>201208</t>
+  </si>
+  <si>
+    <t>201209</t>
+  </si>
+  <si>
+    <t>201210</t>
+  </si>
+  <si>
+    <t>201211</t>
+  </si>
+  <si>
+    <t>201212</t>
+  </si>
+  <si>
+    <t>201301</t>
+  </si>
+  <si>
+    <t>201302</t>
+  </si>
+  <si>
+    <t>201303</t>
+  </si>
+  <si>
+    <t>201304</t>
+  </si>
+  <si>
+    <t>201305</t>
+  </si>
+  <si>
+    <t>201306</t>
+  </si>
+  <si>
+    <t>201307</t>
+  </si>
+  <si>
+    <t>201308</t>
+  </si>
+  <si>
+    <t>201309</t>
+  </si>
+  <si>
+    <t>201310</t>
+  </si>
+  <si>
+    <t>201311</t>
+  </si>
+  <si>
+    <t>201312</t>
+  </si>
+  <si>
+    <t>201401</t>
+  </si>
+  <si>
+    <t>201402</t>
+  </si>
+  <si>
+    <t>201403</t>
+  </si>
+  <si>
+    <t>201404</t>
+  </si>
+  <si>
+    <t>201405</t>
+  </si>
+  <si>
+    <t>201406</t>
+  </si>
+  <si>
+    <t>201407</t>
+  </si>
+  <si>
+    <t>201408</t>
+  </si>
+  <si>
+    <t>201409</t>
+  </si>
+  <si>
+    <t>201410</t>
+  </si>
+  <si>
+    <t>201411</t>
+  </si>
+  <si>
+    <t>201412</t>
+  </si>
+  <si>
+    <t>201501</t>
+  </si>
+  <si>
+    <t>201502</t>
+  </si>
+  <si>
+    <t>201503</t>
+  </si>
+  <si>
+    <t>201504</t>
+  </si>
+  <si>
+    <t>201505</t>
+  </si>
+  <si>
+    <t>201506</t>
+  </si>
+  <si>
+    <t>201507</t>
+  </si>
+  <si>
+    <t>201508</t>
+  </si>
+  <si>
+    <t>201509</t>
+  </si>
+  <si>
+    <t>201510</t>
+  </si>
+  <si>
+    <t>201511</t>
+  </si>
+  <si>
+    <t>201512</t>
+  </si>
+  <si>
+    <t>201601</t>
+  </si>
+  <si>
+    <t>201602</t>
+  </si>
+  <si>
+    <t>201603</t>
+  </si>
+  <si>
+    <t>201604</t>
+  </si>
+  <si>
+    <t>201605</t>
+  </si>
+  <si>
+    <t>201606</t>
+  </si>
+  <si>
+    <t>201607</t>
+  </si>
+  <si>
+    <t>201608</t>
+  </si>
+  <si>
+    <t>201609</t>
+  </si>
+  <si>
+    <t>201610</t>
+  </si>
+  <si>
+    <t>201611</t>
+  </si>
+  <si>
+    <t>201612</t>
+  </si>
+  <si>
+    <t>201701</t>
+  </si>
+  <si>
+    <t>201702</t>
+  </si>
+  <si>
+    <t>201703</t>
+  </si>
+  <si>
+    <t>201704</t>
+  </si>
+  <si>
+    <t>201705</t>
+  </si>
+  <si>
+    <t>201706</t>
+  </si>
+  <si>
+    <t>201707</t>
+  </si>
+  <si>
+    <t>201708</t>
+  </si>
+  <si>
+    <t>201709</t>
+  </si>
+  <si>
+    <t>201710</t>
+  </si>
+  <si>
+    <t>201711</t>
+  </si>
+  <si>
+    <t>201712</t>
+  </si>
+  <si>
+    <t>201801</t>
+  </si>
+  <si>
+    <t>201802</t>
+  </si>
+  <si>
+    <t>201803</t>
+  </si>
+  <si>
+    <t>201804</t>
+  </si>
+  <si>
+    <t>201805</t>
+  </si>
+  <si>
+    <t>201806</t>
+  </si>
+  <si>
+    <t>201807</t>
+  </si>
+  <si>
+    <t>201808</t>
+  </si>
+  <si>
+    <t>201809</t>
+  </si>
+  <si>
+    <t>201810</t>
+  </si>
+  <si>
+    <t>201811</t>
+  </si>
+  <si>
+    <t>201812</t>
+  </si>
+  <si>
+    <t>201901</t>
+  </si>
+  <si>
+    <t>201902</t>
+  </si>
+  <si>
+    <t>201903</t>
+  </si>
+  <si>
+    <t>201904</t>
+  </si>
+  <si>
+    <t>201905</t>
+  </si>
+  <si>
+    <t>201906</t>
+  </si>
+  <si>
+    <t>201907</t>
+  </si>
+  <si>
+    <t>201908</t>
+  </si>
+  <si>
+    <t>201909</t>
+  </si>
+  <si>
+    <t>201910</t>
+  </si>
+  <si>
+    <t>201911</t>
+  </si>
+  <si>
+    <t>201912</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>202003</t>
+  </si>
+  <si>
+    <t>202004</t>
+  </si>
+  <si>
+    <t>202005</t>
+  </si>
+  <si>
+    <t>202006</t>
+  </si>
+  <si>
+    <t>202007</t>
+  </si>
+  <si>
+    <t>202008</t>
+  </si>
+  <si>
+    <t>202009</t>
+  </si>
+  <si>
+    <t>202010</t>
+  </si>
+  <si>
+    <t>202011</t>
+  </si>
+  <si>
+    <t>202012</t>
+  </si>
+  <si>
+    <t>202101</t>
+  </si>
+  <si>
+    <t>202102</t>
+  </si>
+  <si>
+    <t>202103</t>
+  </si>
+  <si>
+    <t>202104</t>
+  </si>
+  <si>
+    <t>202105</t>
+  </si>
+  <si>
+    <t>202106</t>
+  </si>
+  <si>
+    <t>202107</t>
+  </si>
+  <si>
+    <t>202108</t>
+  </si>
+  <si>
+    <t>202109</t>
+  </si>
+  <si>
+    <t>202110</t>
+  </si>
+  <si>
+    <t>202111</t>
+  </si>
+  <si>
     <t>YEAR_MONTH</t>
-  </si>
-  <si>
-    <t>UEM_CHANGE</t>
-  </si>
-  <si>
-    <t>MA_12M</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>200002</t>
-  </si>
-  <si>
-    <t>200003</t>
-  </si>
-  <si>
-    <t>200004</t>
-  </si>
-  <si>
-    <t>200005</t>
-  </si>
-  <si>
-    <t>200006</t>
-  </si>
-  <si>
-    <t>200007</t>
-  </si>
-  <si>
-    <t>200008</t>
-  </si>
-  <si>
-    <t>200009</t>
-  </si>
-  <si>
-    <t>200010</t>
-  </si>
-  <si>
-    <t>200011</t>
-  </si>
-  <si>
-    <t>200012</t>
-  </si>
-  <si>
-    <t>200101</t>
-  </si>
-  <si>
-    <t>200102</t>
-  </si>
-  <si>
-    <t>200103</t>
-  </si>
-  <si>
-    <t>200104</t>
-  </si>
-  <si>
-    <t>200105</t>
-  </si>
-  <si>
-    <t>200106</t>
-  </si>
-  <si>
-    <t>200107</t>
-  </si>
-  <si>
-    <t>200108</t>
-  </si>
-  <si>
-    <t>200109</t>
-  </si>
-  <si>
-    <t>200110</t>
-  </si>
-  <si>
-    <t>200111</t>
-  </si>
-  <si>
-    <t>200112</t>
-  </si>
-  <si>
-    <t>200201</t>
-  </si>
-  <si>
-    <t>200202</t>
-  </si>
-  <si>
-    <t>200203</t>
-  </si>
-  <si>
-    <t>200204</t>
-  </si>
-  <si>
-    <t>200205</t>
-  </si>
-  <si>
-    <t>200206</t>
-  </si>
-  <si>
-    <t>200207</t>
-  </si>
-  <si>
-    <t>200208</t>
-  </si>
-  <si>
-    <t>200209</t>
-  </si>
-  <si>
-    <t>200210</t>
-  </si>
-  <si>
-    <t>200211</t>
-  </si>
-  <si>
-    <t>200212</t>
-  </si>
-  <si>
-    <t>200301</t>
-  </si>
-  <si>
-    <t>200302</t>
-  </si>
-  <si>
-    <t>200303</t>
-  </si>
-  <si>
-    <t>200304</t>
-  </si>
-  <si>
-    <t>200305</t>
-  </si>
-  <si>
-    <t>200306</t>
-  </si>
-  <si>
-    <t>200307</t>
-  </si>
-  <si>
-    <t>200308</t>
-  </si>
-  <si>
-    <t>200309</t>
-  </si>
-  <si>
-    <t>200310</t>
-  </si>
-  <si>
-    <t>200311</t>
-  </si>
-  <si>
-    <t>200312</t>
-  </si>
-  <si>
-    <t>200401</t>
-  </si>
-  <si>
-    <t>200402</t>
-  </si>
-  <si>
-    <t>200403</t>
-  </si>
-  <si>
-    <t>200404</t>
-  </si>
-  <si>
-    <t>200405</t>
-  </si>
-  <si>
-    <t>200406</t>
-  </si>
-  <si>
-    <t>200407</t>
-  </si>
-  <si>
-    <t>200408</t>
-  </si>
-  <si>
-    <t>200409</t>
-  </si>
-  <si>
-    <t>200410</t>
-  </si>
-  <si>
-    <t>200411</t>
-  </si>
-  <si>
-    <t>200412</t>
-  </si>
-  <si>
-    <t>200501</t>
-  </si>
-  <si>
-    <t>200502</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>200505</t>
-  </si>
-  <si>
-    <t>200506</t>
-  </si>
-  <si>
-    <t>200507</t>
-  </si>
-  <si>
-    <t>200508</t>
-  </si>
-  <si>
-    <t>200509</t>
-  </si>
-  <si>
-    <t>200510</t>
-  </si>
-  <si>
-    <t>200511</t>
-  </si>
-  <si>
-    <t>200512</t>
-  </si>
-  <si>
-    <t>200601</t>
-  </si>
-  <si>
-    <t>200602</t>
-  </si>
-  <si>
-    <t>200603</t>
-  </si>
-  <si>
-    <t>200604</t>
-  </si>
-  <si>
-    <t>200605</t>
-  </si>
-  <si>
-    <t>200606</t>
-  </si>
-  <si>
-    <t>200607</t>
-  </si>
-  <si>
-    <t>200608</t>
-  </si>
-  <si>
-    <t>200609</t>
-  </si>
-  <si>
-    <t>200610</t>
-  </si>
-  <si>
-    <t>200611</t>
-  </si>
-  <si>
-    <t>200612</t>
-  </si>
-  <si>
-    <t>200701</t>
-  </si>
-  <si>
-    <t>200702</t>
-  </si>
-  <si>
-    <t>200703</t>
-  </si>
-  <si>
-    <t>200704</t>
-  </si>
-  <si>
-    <t>200705</t>
-  </si>
-  <si>
-    <t>200706</t>
-  </si>
-  <si>
-    <t>200707</t>
-  </si>
-  <si>
-    <t>200708</t>
-  </si>
-  <si>
-    <t>200709</t>
-  </si>
-  <si>
-    <t>200710</t>
-  </si>
-  <si>
-    <t>200711</t>
-  </si>
-  <si>
-    <t>200712</t>
-  </si>
-  <si>
-    <t>200801</t>
-  </si>
-  <si>
-    <t>200802</t>
-  </si>
-  <si>
-    <t>200803</t>
-  </si>
-  <si>
-    <t>200804</t>
-  </si>
-  <si>
-    <t>200805</t>
-  </si>
-  <si>
-    <t>200806</t>
-  </si>
-  <si>
-    <t>200807</t>
-  </si>
-  <si>
-    <t>200808</t>
-  </si>
-  <si>
-    <t>200809</t>
-  </si>
-  <si>
-    <t>200810</t>
-  </si>
-  <si>
-    <t>200811</t>
-  </si>
-  <si>
-    <t>200812</t>
-  </si>
-  <si>
-    <t>200901</t>
-  </si>
-  <si>
-    <t>200902</t>
-  </si>
-  <si>
-    <t>200903</t>
-  </si>
-  <si>
-    <t>200904</t>
-  </si>
-  <si>
-    <t>200905</t>
-  </si>
-  <si>
-    <t>200906</t>
-  </si>
-  <si>
-    <t>200907</t>
-  </si>
-  <si>
-    <t>200908</t>
-  </si>
-  <si>
-    <t>200909</t>
-  </si>
-  <si>
-    <t>200910</t>
-  </si>
-  <si>
-    <t>200911</t>
-  </si>
-  <si>
-    <t>200912</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201002</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>201004</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>201006</t>
-  </si>
-  <si>
-    <t>201007</t>
-  </si>
-  <si>
-    <t>201008</t>
-  </si>
-  <si>
-    <t>201009</t>
-  </si>
-  <si>
-    <t>201010</t>
-  </si>
-  <si>
-    <t>201011</t>
-  </si>
-  <si>
-    <t>201012</t>
-  </si>
-  <si>
-    <t>201101</t>
-  </si>
-  <si>
-    <t>201102</t>
-  </si>
-  <si>
-    <t>201103</t>
-  </si>
-  <si>
-    <t>201104</t>
-  </si>
-  <si>
-    <t>201105</t>
-  </si>
-  <si>
-    <t>201106</t>
-  </si>
-  <si>
-    <t>201107</t>
-  </si>
-  <si>
-    <t>201108</t>
-  </si>
-  <si>
-    <t>201109</t>
-  </si>
-  <si>
-    <t>201110</t>
-  </si>
-  <si>
-    <t>201111</t>
-  </si>
-  <si>
-    <t>201112</t>
-  </si>
-  <si>
-    <t>201201</t>
-  </si>
-  <si>
-    <t>201202</t>
-  </si>
-  <si>
-    <t>201203</t>
-  </si>
-  <si>
-    <t>201204</t>
-  </si>
-  <si>
-    <t>201205</t>
-  </si>
-  <si>
-    <t>201206</t>
-  </si>
-  <si>
-    <t>201207</t>
-  </si>
-  <si>
-    <t>201208</t>
-  </si>
-  <si>
-    <t>201209</t>
-  </si>
-  <si>
-    <t>201210</t>
-  </si>
-  <si>
-    <t>201211</t>
-  </si>
-  <si>
-    <t>201212</t>
-  </si>
-  <si>
-    <t>201301</t>
-  </si>
-  <si>
-    <t>201302</t>
-  </si>
-  <si>
-    <t>201303</t>
-  </si>
-  <si>
-    <t>201304</t>
-  </si>
-  <si>
-    <t>201305</t>
-  </si>
-  <si>
-    <t>201306</t>
-  </si>
-  <si>
-    <t>201307</t>
-  </si>
-  <si>
-    <t>201308</t>
-  </si>
-  <si>
-    <t>201309</t>
-  </si>
-  <si>
-    <t>201310</t>
-  </si>
-  <si>
-    <t>201311</t>
-  </si>
-  <si>
-    <t>201312</t>
-  </si>
-  <si>
-    <t>201401</t>
-  </si>
-  <si>
-    <t>201402</t>
-  </si>
-  <si>
-    <t>201403</t>
-  </si>
-  <si>
-    <t>201404</t>
-  </si>
-  <si>
-    <t>201405</t>
-  </si>
-  <si>
-    <t>201406</t>
-  </si>
-  <si>
-    <t>201407</t>
-  </si>
-  <si>
-    <t>201408</t>
-  </si>
-  <si>
-    <t>201409</t>
-  </si>
-  <si>
-    <t>201410</t>
-  </si>
-  <si>
-    <t>201411</t>
-  </si>
-  <si>
-    <t>201412</t>
-  </si>
-  <si>
-    <t>201501</t>
-  </si>
-  <si>
-    <t>201502</t>
-  </si>
-  <si>
-    <t>201503</t>
-  </si>
-  <si>
-    <t>201504</t>
-  </si>
-  <si>
-    <t>201505</t>
-  </si>
-  <si>
-    <t>201506</t>
-  </si>
-  <si>
-    <t>201507</t>
-  </si>
-  <si>
-    <t>201508</t>
-  </si>
-  <si>
-    <t>201509</t>
-  </si>
-  <si>
-    <t>201510</t>
-  </si>
-  <si>
-    <t>201511</t>
-  </si>
-  <si>
-    <t>201512</t>
-  </si>
-  <si>
-    <t>201601</t>
-  </si>
-  <si>
-    <t>201602</t>
-  </si>
-  <si>
-    <t>201603</t>
-  </si>
-  <si>
-    <t>201604</t>
-  </si>
-  <si>
-    <t>201605</t>
-  </si>
-  <si>
-    <t>201606</t>
-  </si>
-  <si>
-    <t>201607</t>
-  </si>
-  <si>
-    <t>201608</t>
-  </si>
-  <si>
-    <t>201609</t>
-  </si>
-  <si>
-    <t>201610</t>
-  </si>
-  <si>
-    <t>201611</t>
-  </si>
-  <si>
-    <t>201612</t>
-  </si>
-  <si>
-    <t>201701</t>
-  </si>
-  <si>
-    <t>201702</t>
-  </si>
-  <si>
-    <t>201703</t>
-  </si>
-  <si>
-    <t>201704</t>
-  </si>
-  <si>
-    <t>201705</t>
-  </si>
-  <si>
-    <t>201706</t>
-  </si>
-  <si>
-    <t>201707</t>
-  </si>
-  <si>
-    <t>201708</t>
-  </si>
-  <si>
-    <t>201709</t>
-  </si>
-  <si>
-    <t>201710</t>
-  </si>
-  <si>
-    <t>201711</t>
-  </si>
-  <si>
-    <t>201712</t>
-  </si>
-  <si>
-    <t>201801</t>
-  </si>
-  <si>
-    <t>201802</t>
-  </si>
-  <si>
-    <t>201803</t>
-  </si>
-  <si>
-    <t>201804</t>
-  </si>
-  <si>
-    <t>201805</t>
-  </si>
-  <si>
-    <t>201806</t>
-  </si>
-  <si>
-    <t>201807</t>
-  </si>
-  <si>
-    <t>201808</t>
-  </si>
-  <si>
-    <t>201809</t>
-  </si>
-  <si>
-    <t>201810</t>
-  </si>
-  <si>
-    <t>201811</t>
-  </si>
-  <si>
-    <t>201812</t>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>201902</t>
-  </si>
-  <si>
-    <t>201903</t>
-  </si>
-  <si>
-    <t>201904</t>
-  </si>
-  <si>
-    <t>201905</t>
-  </si>
-  <si>
-    <t>201906</t>
-  </si>
-  <si>
-    <t>201907</t>
-  </si>
-  <si>
-    <t>201908</t>
-  </si>
-  <si>
-    <t>201909</t>
-  </si>
-  <si>
-    <t>201910</t>
-  </si>
-  <si>
-    <t>201911</t>
-  </si>
-  <si>
-    <t>201912</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>202003</t>
-  </si>
-  <si>
-    <t>202004</t>
-  </si>
-  <si>
-    <t>202005</t>
-  </si>
-  <si>
-    <t>202006</t>
-  </si>
-  <si>
-    <t>202007</t>
-  </si>
-  <si>
-    <t>202008</t>
-  </si>
-  <si>
-    <t>202009</t>
-  </si>
-  <si>
-    <t>202010</t>
-  </si>
-  <si>
-    <t>202011</t>
-  </si>
-  <si>
-    <t>202012</t>
-  </si>
-  <si>
-    <t>202101</t>
-  </si>
-  <si>
-    <t>202102</t>
-  </si>
-  <si>
-    <t>202103</t>
-  </si>
-  <si>
-    <t>202104</t>
-  </si>
-  <si>
-    <t>202105</t>
-  </si>
-  <si>
-    <t>202106</t>
-  </si>
-  <si>
-    <t>202107</t>
-  </si>
-  <si>
-    <t>202108</t>
-  </si>
-  <si>
-    <t>202109</t>
-  </si>
-  <si>
-    <t>202110</t>
-  </si>
-  <si>
-    <t>202111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -905,8 +954,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -950,18 +1006,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1003,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,9 +1099,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,6 +1151,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1244,14 +1344,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,157 +1371,157 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36161</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>4.1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>36557</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B3" s="2">
-        <v>36586</v>
+        <v>36192</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3">
-        <v>-0.02439024390243894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.325581395348841E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="B4" s="2">
-        <v>36617</v>
+        <v>36220</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>-0.05000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-4.5454545454545532E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="B5" s="2">
-        <v>36647</v>
+        <v>36251</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0.05263157894736836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2.3809523809523721E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="B6" s="2">
-        <v>36678</v>
+        <v>36281</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-2.3255813953488299E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="B7" s="2">
-        <v>36708</v>
+        <v>36312</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>2.3809523809523721E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="B8" s="2">
-        <v>36739</v>
+        <v>36342</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>0.02499999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="B9" s="2">
-        <v>36770</v>
+        <v>36373</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
       <c r="E9">
-        <v>-0.04878048780487798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-2.3255813953488299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="B10" s="2">
-        <v>36800</v>
+        <v>36404</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1421,32 +1530,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B11" s="2">
-        <v>36831</v>
+        <v>36434</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-2.380952380952395E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B12" s="2">
-        <v>36861</v>
+        <v>36465</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -1455,35 +1564,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>36892</v>
+        <v>36495</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13">
-        <v>0.07692307692307709</v>
+        <v>-2.4390243902438939E-2</v>
       </c>
       <c r="F13">
-        <v>3.983333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>4.2166666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>36923</v>
+        <v>36526</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -1492,218 +1601,218 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.991666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>4.1916666666666673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B15" s="2">
-        <v>36951</v>
+        <v>36557</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15">
-        <v>0.02380952380952372</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F15">
-        <v>4.016666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>36982</v>
+        <v>36586</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16">
-        <v>0.02325581395348841</v>
+        <v>-2.4390243902438939E-2</v>
       </c>
       <c r="F16">
-        <v>4.066666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.1499999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="B17" s="2">
-        <v>37012</v>
+        <v>36617</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17">
-        <v>-0.02272727272727282</v>
+        <v>-5.0000000000000037E-2</v>
       </c>
       <c r="F17">
-        <v>4.091666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>4.1083333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>37043</v>
+        <v>36647</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
       </c>
       <c r="E18">
-        <v>0.04651162790697683</v>
+        <v>5.2631578947368363E-2</v>
       </c>
       <c r="F18">
-        <v>4.133333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>4.0916666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>37073</v>
+        <v>36678</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
       <c r="E19">
-        <v>0.02222222222222214</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4.183333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.0666666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>37104</v>
+        <v>36708</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20">
-        <v>0.06521739130434789</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4.041666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B21" s="2">
-        <v>37135</v>
+        <v>36739</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21">
-        <v>0.02040816326530615</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F21">
-        <v>4.341666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.0333333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="B22" s="2">
-        <v>37165</v>
+        <v>36770</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22">
-        <v>0.06000000000000005</v>
+        <v>-4.8780487804877981E-2</v>
       </c>
       <c r="F22">
-        <v>4.458333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4.0083333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="B23" s="2">
-        <v>37196</v>
+        <v>36800</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="E23">
-        <v>0.03773584905660377</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4.591666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>3.9916666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="B24" s="2">
-        <v>37226</v>
+        <v>36831</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>0.03636363636363638</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4.741666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="B25" s="2">
-        <v>37257</v>
+        <v>36861</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -1712,38 +1821,38 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.866666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>3.9666666666666659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="B26" s="2">
-        <v>37288</v>
+        <v>36892</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>7.6923076923077094E-2</v>
       </c>
       <c r="F26">
-        <v>4.991666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>3.9833333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="B27" s="2">
-        <v>37316</v>
+        <v>36923</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -1752,238 +1861,238 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>5.108333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3.9916666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="B28" s="2">
-        <v>37347</v>
+        <v>36951</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
       </c>
       <c r="E28">
-        <v>0.03508771929824572</v>
+        <v>2.3809523809523721E-2</v>
       </c>
       <c r="F28">
-        <v>5.233333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>4.0166666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B29" s="2">
-        <v>37377</v>
+        <v>36982</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
       </c>
       <c r="E29">
-        <v>-0.01694915254237295</v>
+        <v>2.325581395348841E-2</v>
       </c>
       <c r="F29">
-        <v>5.358333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>4.0666666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="B30" s="2">
-        <v>37408</v>
+        <v>37012</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-2.2727272727272822E-2</v>
       </c>
       <c r="F30">
-        <v>5.466666666666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>4.0916666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="B31" s="2">
-        <v>37438</v>
+        <v>37043</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>57</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4.6511627906976827E-2</v>
       </c>
       <c r="F31">
-        <v>5.566666666666666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>4.1333333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B32" s="2">
-        <v>37469</v>
+        <v>37073</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>58</v>
       </c>
       <c r="E32">
-        <v>-0.01724137931034475</v>
+        <v>2.222222222222214E-2</v>
       </c>
       <c r="F32">
-        <v>5.633333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>4.1833333333333327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B33" s="2">
-        <v>37500</v>
+        <v>37104</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>6.5217391304347894E-2</v>
       </c>
       <c r="F33">
-        <v>5.691666666666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>37530</v>
+        <v>37135</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2.0408163265306149E-2</v>
       </c>
       <c r="F34">
-        <v>5.725000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>4.3416666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="B35" s="2">
-        <v>37561</v>
+        <v>37165</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>61</v>
       </c>
       <c r="E35">
-        <v>0.03508771929824572</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="F35">
-        <v>5.758333333333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>4.458333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B36" s="2">
-        <v>37591</v>
+        <v>37196</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
       </c>
       <c r="E36">
-        <v>0.01694915254237284</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="F36">
-        <v>5.783333333333334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>4.5916666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="B37" s="2">
-        <v>37622</v>
+        <v>37226</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>63</v>
       </c>
       <c r="E37">
-        <v>-0.03333333333333333</v>
+        <v>3.6363636363636383E-2</v>
       </c>
       <c r="F37">
-        <v>5.791666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>4.7416666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="B38" s="2">
-        <v>37653</v>
+        <v>37257</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>64</v>
       </c>
       <c r="E38">
-        <v>0.01724137931034497</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>5.808333333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>4.8666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="B39" s="2">
-        <v>37681</v>
+        <v>37288</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -1992,558 +2101,558 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5.825</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>4.9916666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="B40" s="2">
-        <v>37712</v>
+        <v>37316</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
       </c>
       <c r="E40">
-        <v>0.01694915254237284</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>5.1083333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="B41" s="2">
-        <v>37742</v>
+        <v>37347</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>67</v>
       </c>
       <c r="E41">
-        <v>0.01666666666666661</v>
+        <v>3.5087719298245723E-2</v>
       </c>
       <c r="F41">
-        <v>5.858333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>5.2333333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="B42" s="2">
-        <v>37773</v>
+        <v>37377</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
       </c>
       <c r="E42">
-        <v>0.03278688524590168</v>
+        <v>-1.6949152542372951E-2</v>
       </c>
       <c r="F42">
-        <v>5.899999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>5.3583333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="B43" s="2">
-        <v>37803</v>
+        <v>37408</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
       </c>
       <c r="E43">
-        <v>-0.01587301587301582</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>5.933333333333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>5.4666666666666659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="B44" s="2">
-        <v>37834</v>
+        <v>37438</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>70</v>
       </c>
       <c r="E44">
-        <v>-0.01612903225806461</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>5.966666666666666</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="B45" s="2">
-        <v>37865</v>
+        <v>37469</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>71</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-1.7241379310344751E-2</v>
       </c>
       <c r="F45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>5.6333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="B46" s="2">
-        <v>37895</v>
+        <v>37500</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>72</v>
       </c>
       <c r="E46">
-        <v>-0.01639344262295073</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>6.025000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>5.6916666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="B47" s="2">
-        <v>37926</v>
+        <v>37530</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="E47">
-        <v>-0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>6.016666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>5.7250000000000014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="B48" s="2">
-        <v>37956</v>
+        <v>37561</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>74</v>
       </c>
       <c r="E48">
-        <v>-0.01724137931034475</v>
+        <v>3.5087719298245723E-2</v>
       </c>
       <c r="F48">
-        <v>5.991666666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>5.7583333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>37987</v>
+        <v>37591</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>75</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1.694915254237284E-2</v>
       </c>
       <c r="F49">
-        <v>5.983333333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>5.7833333333333341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="B50" s="2">
-        <v>38018</v>
+        <v>37622</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>76</v>
       </c>
       <c r="E50">
-        <v>-0.01754385964912286</v>
+        <v>-3.3333333333333333E-2</v>
       </c>
       <c r="F50">
-        <v>5.958333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>5.791666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="B51" s="2">
-        <v>38047</v>
+        <v>37653</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
       </c>
       <c r="E51">
-        <v>0.03571428571428581</v>
+        <v>1.724137931034497E-2</v>
       </c>
       <c r="F51">
-        <v>5.949999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>5.8083333333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="B52" s="2">
-        <v>38078</v>
+        <v>37681</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>78</v>
       </c>
       <c r="E52">
-        <v>-0.03448275862068972</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>5.916666666666665</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>5.8249999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>38108</v>
+        <v>37712</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
         <v>79</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1.694915254237284E-2</v>
       </c>
       <c r="F53">
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="B54" s="2">
-        <v>38139</v>
+        <v>37742</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1.6666666666666611E-2</v>
       </c>
       <c r="F54">
-        <v>5.816666666666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>5.8583333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="B55" s="2">
-        <v>38169</v>
+        <v>37773</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
       </c>
       <c r="E55">
-        <v>-0.01785714285714279</v>
+        <v>3.2786885245901683E-2</v>
       </c>
       <c r="F55">
-        <v>5.758333333333333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>5.9000000000000012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="B56" s="2">
-        <v>38200</v>
+        <v>37803</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
         <v>82</v>
       </c>
       <c r="E56">
-        <v>-0.01818181818181808</v>
+        <v>-1.587301587301582E-2</v>
       </c>
       <c r="F56">
-        <v>5.699999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="B57" s="2">
-        <v>38231</v>
+        <v>37834</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>83</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-1.6129032258064609E-2</v>
       </c>
       <c r="F57">
-        <v>5.641666666666667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>5.9666666666666677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="B58" s="2">
-        <v>38261</v>
+        <v>37865</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
         <v>84</v>
       </c>
       <c r="E58">
-        <v>0.01851851851851838</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2">
-        <v>38292</v>
+        <v>37895</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>85</v>
       </c>
       <c r="E59">
-        <v>-0.01818181818181808</v>
+        <v>-1.639344262295073E-2</v>
       </c>
       <c r="F59">
-        <v>5.566666666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>6.0249999999999986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="B60" s="2">
-        <v>38322</v>
+        <v>37926</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>86</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>-3.3333333333333333E-2</v>
       </c>
       <c r="F60">
-        <v>5.541666666666667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>6.0166666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="B61" s="2">
-        <v>38353</v>
+        <v>37956</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
         <v>87</v>
       </c>
       <c r="E61">
-        <v>-0.0185185185185186</v>
+        <v>-1.7241379310344751E-2</v>
       </c>
       <c r="F61">
-        <v>5.508333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>5.9916666666666663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="B62" s="2">
-        <v>38384</v>
+        <v>37987</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
       </c>
       <c r="E62">
-        <v>0.01886792452830188</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>5.491666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>5.9833333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="B63" s="2">
-        <v>38412</v>
+        <v>38018</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>89</v>
       </c>
       <c r="E63">
-        <v>-0.03703703703703709</v>
+        <v>-1.7543859649122862E-2</v>
       </c>
       <c r="F63">
-        <v>5.441666666666666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>5.958333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="B64" s="2">
-        <v>38443</v>
+        <v>38047</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
         <v>90</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3.5714285714285809E-2</v>
       </c>
       <c r="F64">
-        <v>5.408333333333334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>5.9499999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="B65" s="2">
-        <v>38473</v>
+        <v>38078</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>91</v>
       </c>
       <c r="E65">
-        <v>-0.01923076923076938</v>
+        <v>-3.4482758620689717E-2</v>
       </c>
       <c r="F65">
-        <v>5.366666666666667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="B66" s="2">
-        <v>38504</v>
+        <v>38108</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
         <v>92</v>
       </c>
       <c r="E66">
-        <v>-0.01960784313725483</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>5.316666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="B67" s="2">
-        <v>38534</v>
+        <v>38139</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
         <v>93</v>
@@ -2552,58 +2661,58 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>5.275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>5.8166666666666664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="B68" s="2">
-        <v>38565</v>
+        <v>38169</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>94</v>
       </c>
       <c r="E68">
-        <v>-0.01999999999999991</v>
+        <v>-1.785714285714279E-2</v>
       </c>
       <c r="F68">
-        <v>5.233333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>5.7583333333333329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="B69" s="2">
-        <v>38596</v>
+        <v>38200</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>95</v>
       </c>
       <c r="E69">
-        <v>0.02040816326530615</v>
+        <v>-1.818181818181808E-2</v>
       </c>
       <c r="F69">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="B70" s="2">
-        <v>38626</v>
+        <v>38231</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>96</v>
@@ -2612,198 +2721,198 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5.158333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>5.6416666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B71" s="2">
-        <v>38657</v>
+        <v>38261</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>97</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1.8518518518518379E-2</v>
       </c>
       <c r="F71">
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="B72" s="2">
-        <v>38687</v>
+        <v>38292</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
       </c>
       <c r="E72">
-        <v>-0.01999999999999991</v>
+        <v>-1.818181818181808E-2</v>
       </c>
       <c r="F72">
-        <v>5.083333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="B73" s="2">
-        <v>38718</v>
+        <v>38322</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>99</v>
       </c>
       <c r="E73">
-        <v>-0.04081632653061229</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>5.033333333333333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>5.541666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="B74" s="2">
-        <v>38749</v>
+        <v>38353</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>100</v>
       </c>
       <c r="E74">
-        <v>0.02127659574468077</v>
+        <v>-1.8518518518518601E-2</v>
       </c>
       <c r="F74">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>5.5083333333333329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="B75" s="2">
-        <v>38777</v>
+        <v>38384</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>101</v>
       </c>
       <c r="E75">
-        <v>-0.02083333333333326</v>
+        <v>1.8867924528301879E-2</v>
       </c>
       <c r="F75">
-        <v>4.941666666666666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>5.4916666666666671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="B76" s="2">
-        <v>38808</v>
+        <v>38412</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>102</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-3.703703703703709E-2</v>
       </c>
       <c r="F76">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>5.4416666666666664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="B77" s="2">
-        <v>38838</v>
+        <v>38443</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
         <v>103</v>
       </c>
       <c r="E77">
-        <v>-0.02127659574468099</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>4.858333333333333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>5.4083333333333341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>4.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B78" s="2">
-        <v>38869</v>
+        <v>38473</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>104</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-1.9230769230769381E-2</v>
       </c>
       <c r="F78">
-        <v>4.825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>5.3666666666666671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="B79" s="2">
-        <v>38899</v>
+        <v>38504</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>105</v>
       </c>
       <c r="E79">
-        <v>0.02173913043478271</v>
+        <v>-1.9607843137254829E-2</v>
       </c>
       <c r="F79">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>5.3166666666666673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2">
-        <v>38930</v>
+        <v>38534</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>106</v>
@@ -2812,1098 +2921,1098 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>4.783333333333334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>5.2750000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B81" s="2">
-        <v>38961</v>
+        <v>38565</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
       </c>
       <c r="E81">
-        <v>-0.04255319148936176</v>
+        <v>-1.999999999999991E-2</v>
       </c>
       <c r="F81">
-        <v>4.741666666666667</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>5.2333333333333334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="B82" s="2">
-        <v>38991</v>
+        <v>38596</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
       </c>
       <c r="E82">
-        <v>-0.02222222222222214</v>
+        <v>2.0408163265306149E-2</v>
       </c>
       <c r="F82">
-        <v>4.691666666666667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B83" s="2">
-        <v>39022</v>
+        <v>38626</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
       </c>
       <c r="E83">
-        <v>0.02272727272727271</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>5.1583333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="B84" s="2">
-        <v>39052</v>
+        <v>38657</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
         <v>110</v>
       </c>
       <c r="E84">
-        <v>-0.02222222222222214</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>4.608333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>4.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B85" s="2">
-        <v>39083</v>
+        <v>38687</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
         <v>111</v>
       </c>
       <c r="E85">
-        <v>0.04545454545454519</v>
+        <v>-1.999999999999991E-2</v>
       </c>
       <c r="F85">
-        <v>4.600000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="B86" s="2">
-        <v>39114</v>
+        <v>38718</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
         <v>112</v>
       </c>
       <c r="E86">
-        <v>-0.02173913043478248</v>
+        <v>-4.081632653061229E-2</v>
       </c>
       <c r="F86">
-        <v>4.575</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>5.0333333333333341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="B87" s="2">
-        <v>39142</v>
+        <v>38749</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
         <v>113</v>
       </c>
       <c r="E87">
-        <v>-0.02222222222222214</v>
+        <v>2.1276595744680771E-2</v>
       </c>
       <c r="F87">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>4.9833333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="B88" s="2">
-        <v>39173</v>
+        <v>38777</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
         <v>114</v>
       </c>
       <c r="E88">
-        <v>0.02272727272727271</v>
+        <v>-2.0833333333333259E-2</v>
       </c>
       <c r="F88">
-        <v>4.533333333333333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>4.9416666666666673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="B89" s="2">
-        <v>39203</v>
+        <v>38808</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>115</v>
       </c>
       <c r="E89">
-        <v>-0.02222222222222214</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>4.516666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B90" s="2">
-        <v>39234</v>
+        <v>38838</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
         <v>116</v>
       </c>
       <c r="E90">
-        <v>0.04545454545454519</v>
+        <v>-2.1276595744680989E-2</v>
       </c>
       <c r="F90">
-        <v>4.516666666666667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>4.8583333333333334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B91" s="2">
-        <v>39264</v>
+        <v>38869</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
         <v>117</v>
       </c>
       <c r="E91">
-        <v>0.02173913043478271</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>4.516666666666667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>4.8250000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="B92" s="2">
-        <v>39295</v>
+        <v>38899</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
         <v>118</v>
       </c>
       <c r="E92">
-        <v>-0.02127659574468099</v>
+        <v>2.1739130434782709E-2</v>
       </c>
       <c r="F92">
-        <v>4.508333333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.7</v>
       </c>
       <c r="B93" s="2">
-        <v>39326</v>
+        <v>38930</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
         <v>119</v>
       </c>
       <c r="E93">
-        <v>0.02173913043478271</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>4.524999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>4.7833333333333332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="B94" s="2">
-        <v>39356</v>
+        <v>38961</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
         <v>120</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-4.2553191489361757E-2</v>
       </c>
       <c r="F94">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>4.7416666666666663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B95" s="2">
-        <v>39387</v>
+        <v>38991</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
         <v>121</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F95">
-        <v>4.566666666666666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>4.6916666666666664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B96" s="2">
-        <v>39417</v>
+        <v>39022</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>122</v>
       </c>
       <c r="E96">
-        <v>0.06382978723404253</v>
+        <v>2.2727272727272711E-2</v>
       </c>
       <c r="F96">
-        <v>4.616666666666666</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>4.6499999999999986</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B97" s="2">
-        <v>39448</v>
+        <v>39052</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
         <v>123</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F97">
-        <v>4.649999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>4.6083333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>4.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B98" s="2">
-        <v>39479</v>
+        <v>39083</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
         <v>124</v>
       </c>
       <c r="E98">
-        <v>-0.01999999999999991</v>
+        <v>4.5454545454545192E-2</v>
       </c>
       <c r="F98">
-        <v>4.683333333333334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="B99" s="2">
-        <v>39508</v>
+        <v>39114</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
         <v>125</v>
       </c>
       <c r="E99">
-        <v>0.04081632653061207</v>
+        <v>-2.173913043478248E-2</v>
       </c>
       <c r="F99">
-        <v>4.741666666666666</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>4.5750000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B100" s="2">
-        <v>39539</v>
+        <v>39142</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>126</v>
       </c>
       <c r="E100">
-        <v>-0.01960784313725483</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F100">
-        <v>4.783333333333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="B101" s="2">
-        <v>39569</v>
+        <v>39173</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
         <v>127</v>
       </c>
       <c r="E101">
-        <v>0.08000000000000007</v>
+        <v>2.2727272727272711E-2</v>
       </c>
       <c r="F101">
-        <v>4.866666666666667</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>4.5333333333333341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>5.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B102" s="2">
-        <v>39600</v>
+        <v>39203</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
         <v>128</v>
       </c>
       <c r="E102">
-        <v>0.03703703703703698</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F102">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>4.5166666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>5.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B103" s="2">
-        <v>39630</v>
+        <v>39234</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>129</v>
       </c>
       <c r="E103">
-        <v>0.03571428571428581</v>
+        <v>4.5454545454545192E-2</v>
       </c>
       <c r="F103">
-        <v>5.041666666666667</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>4.5166666666666666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="B104" s="2">
-        <v>39661</v>
+        <v>39264</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
         <v>130</v>
       </c>
       <c r="E104">
-        <v>0.05172413793103448</v>
+        <v>2.1739130434782709E-2</v>
       </c>
       <c r="F104">
-        <v>5.166666666666667</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>4.5166666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B105" s="2">
-        <v>39692</v>
+        <v>39295</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>131</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>-2.1276595744680989E-2</v>
       </c>
       <c r="F105">
-        <v>5.283333333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>4.5083333333333337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="B106" s="2">
-        <v>39722</v>
+        <v>39326</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>132</v>
       </c>
       <c r="E106">
-        <v>0.06557377049180335</v>
+        <v>2.1739130434782709E-2</v>
       </c>
       <c r="F106">
-        <v>5.433333333333334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="B107" s="2">
-        <v>39753</v>
+        <v>39356</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
       </c>
       <c r="E107">
-        <v>0.04615384615384621</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>5.608333333333333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="B108" s="2">
-        <v>39783</v>
+        <v>39387</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
       </c>
       <c r="E108">
-        <v>0.07352941176470584</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>4.5666666666666664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="B109" s="2">
-        <v>39814</v>
+        <v>39417</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>135</v>
       </c>
       <c r="E109">
-        <v>0.06849315068493156</v>
+        <v>6.3829787234042534E-2</v>
       </c>
       <c r="F109">
-        <v>6.033333333333334</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>4.6166666666666663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="B110" s="2">
-        <v>39845</v>
+        <v>39448</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>136</v>
       </c>
       <c r="E110">
-        <v>0.06410256410256432</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>6.316666666666666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>4.6499999999999986</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>8.699999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B111" s="2">
-        <v>39873</v>
+        <v>39479</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>137</v>
       </c>
       <c r="E111">
-        <v>0.04819277108433728</v>
+        <v>-1.999999999999991E-2</v>
       </c>
       <c r="F111">
-        <v>6.616666666666667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>4.6833333333333327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B112" s="2">
-        <v>39904</v>
+        <v>39508</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>138</v>
       </c>
       <c r="E112">
-        <v>0.03448275862068972</v>
+        <v>4.0816326530612068E-2</v>
       </c>
       <c r="F112">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>4.7416666666666663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="B113" s="2">
-        <v>39934</v>
+        <v>39539</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
         <v>139</v>
       </c>
       <c r="E113">
-        <v>0.04444444444444451</v>
+        <v>-1.9607843137254829E-2</v>
       </c>
       <c r="F113">
-        <v>7.283333333333332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>4.7833333333333332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>9.5</v>
+        <v>5.4</v>
       </c>
       <c r="B114" s="2">
-        <v>39965</v>
+        <v>39569</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
         <v>140</v>
       </c>
       <c r="E114">
-        <v>0.0106382978723405</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="F114">
-        <v>7.608333333333333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>4.8666666666666663</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="B115" s="2">
-        <v>39995</v>
+        <v>39600</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
         <v>141</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>3.7037037037036979E-2</v>
       </c>
       <c r="F115">
-        <v>7.916666666666667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="B116" s="2">
-        <v>40026</v>
+        <v>39630</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
         <v>142</v>
       </c>
       <c r="E116">
-        <v>0.01052631578947372</v>
+        <v>3.5714285714285809E-2</v>
       </c>
       <c r="F116">
-        <v>8.208333333333334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>5.041666666666667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>9.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="B117" s="2">
-        <v>40057</v>
+        <v>39661</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
         <v>143</v>
       </c>
       <c r="E117">
-        <v>0.02083333333333348</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="F117">
-        <v>8.516666666666667</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="B118" s="2">
-        <v>40087</v>
+        <v>39692</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
         <v>144</v>
       </c>
       <c r="E118">
-        <v>0.02040816326530615</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>8.808333333333334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>5.2833333333333332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="B119" s="2">
-        <v>40118</v>
+        <v>39722</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
         <v>145</v>
       </c>
       <c r="E119">
-        <v>-0.01000000000000001</v>
+        <v>6.5573770491803351E-2</v>
       </c>
       <c r="F119">
-        <v>9.066666666666668</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>5.4333333333333336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="B120" s="2">
-        <v>40148</v>
+        <v>39753</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>146</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>4.6153846153846212E-2</v>
       </c>
       <c r="F120">
-        <v>9.283333333333333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>5.6083333333333334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="B121" s="2">
-        <v>40179</v>
+        <v>39783</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
         <v>147</v>
       </c>
       <c r="E121">
-        <v>-0.01010101010101006</v>
+        <v>7.3529411764705843E-2</v>
       </c>
       <c r="F121">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="B122" s="2">
-        <v>40210</v>
+        <v>39814</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
         <v>148</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>6.8493150684931559E-2</v>
       </c>
       <c r="F122">
-        <v>9.575000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>6.0333333333333341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>9.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B123" s="2">
-        <v>40238</v>
+        <v>39845</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
         <v>149</v>
       </c>
       <c r="E123">
-        <v>0.01020408163265296</v>
+        <v>6.4102564102564319E-2</v>
       </c>
       <c r="F123">
-        <v>9.674999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>6.3166666666666664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>9.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B124" s="2">
-        <v>40269</v>
+        <v>39873</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
         <v>150</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>4.8192771084337283E-2</v>
       </c>
       <c r="F124">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>6.6166666666666671</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="B125" s="2">
-        <v>40299</v>
+        <v>39904</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
         <v>151</v>
       </c>
       <c r="E125">
-        <v>-0.03030303030303039</v>
+        <v>3.4482758620689717E-2</v>
       </c>
       <c r="F125">
-        <v>9.766666666666667</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>9.4</v>
       </c>
       <c r="B126" s="2">
-        <v>40330</v>
+        <v>39934</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
         <v>152</v>
       </c>
       <c r="E126">
-        <v>-0.02083333333333326</v>
+        <v>4.4444444444444509E-2</v>
       </c>
       <c r="F126">
-        <v>9.758333333333335</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>7.2833333333333323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="B127" s="2">
-        <v>40360</v>
+        <v>39965</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
         <v>153</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1.06382978723405E-2</v>
       </c>
       <c r="F127">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>7.6083333333333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>9.5</v>
       </c>
       <c r="B128" s="2">
-        <v>40391</v>
+        <v>39995</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
         <v>154</v>
       </c>
       <c r="E128">
-        <v>0.0106382978723405</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>9.741666666666667</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>7.916666666666667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="B129" s="2">
-        <v>40422</v>
+        <v>40026</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
         <v>155</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1.052631578947372E-2</v>
       </c>
       <c r="F129">
-        <v>9.716666666666667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>8.2083333333333339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B130" s="2">
-        <v>40452</v>
+        <v>40057</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
         <v>156</v>
       </c>
       <c r="E130">
-        <v>-0.01052631578947361</v>
+        <v>2.0833333333333481E-2</v>
       </c>
       <c r="F130">
-        <v>9.666666666666666</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>8.5166666666666675</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="B131" s="2">
-        <v>40483</v>
+        <v>40087</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
         <v>157</v>
       </c>
       <c r="E131">
-        <v>0.04255319148936176</v>
+        <v>2.0408163265306149E-2</v>
       </c>
       <c r="F131">
-        <v>9.658333333333333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>8.8083333333333336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="B132" s="2">
-        <v>40513</v>
+        <v>40118</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
         <v>158</v>
       </c>
       <c r="E132">
-        <v>-0.05102040816326525</v>
+        <v>-1.0000000000000011E-2</v>
       </c>
       <c r="F132">
-        <v>9.608333333333334</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>9.0666666666666664</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="B133" s="2">
-        <v>40544</v>
+        <v>40148</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
         <v>159</v>
       </c>
       <c r="E133">
-        <v>-0.02150537634408611</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>9.550000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>9.2833333333333332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B134" s="2">
-        <v>40575</v>
+        <v>40179</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
         <v>160</v>
       </c>
       <c r="E134">
-        <v>-0.01098901098901095</v>
+        <v>-1.010101010101006E-2</v>
       </c>
       <c r="F134">
-        <v>9.483333333333333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B135" s="2">
-        <v>40603</v>
+        <v>40210</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
         <v>161</v>
@@ -3912,98 +4021,98 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>9.408333333333333</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>9.5750000000000011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="B136" s="2">
-        <v>40634</v>
+        <v>40238</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
         <v>162</v>
       </c>
       <c r="E136">
-        <v>0.01111111111111107</v>
+        <v>1.020408163265296E-2</v>
       </c>
       <c r="F136">
-        <v>9.341666666666667</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>9.6750000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="B137" s="2">
-        <v>40664</v>
+        <v>40269</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
         <v>163</v>
       </c>
       <c r="E137">
-        <v>-0.01098901098901095</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>9.291666666666666</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="B138" s="2">
-        <v>40695</v>
+        <v>40299</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
         <v>164</v>
       </c>
       <c r="E138">
-        <v>0.01111111111111107</v>
+        <v>-3.0303030303030391E-2</v>
       </c>
       <c r="F138">
-        <v>9.266666666666667</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>9.7666666666666675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="B139" s="2">
-        <v>40725</v>
+        <v>40330</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
         <v>165</v>
       </c>
       <c r="E139">
-        <v>-0.01098901098901095</v>
+        <v>-2.0833333333333259E-2</v>
       </c>
       <c r="F139">
-        <v>9.233333333333334</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>9.7583333333333346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="B140" s="2">
-        <v>40756</v>
+        <v>40360</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
         <v>166</v>
@@ -4012,158 +4121,158 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>9.191666666666668</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="B141" s="2">
-        <v>40787</v>
+        <v>40391</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
         <v>167</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1.06382978723405E-2</v>
       </c>
       <c r="F141">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>9.7416666666666671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="B142" s="2">
-        <v>40817</v>
+        <v>40422</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
         <v>168</v>
       </c>
       <c r="E142">
-        <v>-0.02222222222222214</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>9.7166666666666668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="B143" s="2">
-        <v>40848</v>
+        <v>40452</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
         <v>169</v>
       </c>
       <c r="E143">
-        <v>-0.02272727272727282</v>
+        <v>-1.0526315789473609E-2</v>
       </c>
       <c r="F143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>8.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B144" s="2">
-        <v>40878</v>
+        <v>40483</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
         <v>170</v>
       </c>
       <c r="E144">
-        <v>-0.0116279069767441</v>
+        <v>4.2553191489361757E-2</v>
       </c>
       <c r="F144">
-        <v>8.933333333333332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>9.6583333333333332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>8.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B145" s="2">
-        <v>40909</v>
+        <v>40513</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
         <v>171</v>
       </c>
       <c r="E145">
-        <v>-0.0235294117647058</v>
+        <v>-5.1020408163265252E-2</v>
       </c>
       <c r="F145">
-        <v>8.866666666666667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>9.6083333333333343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="B146" s="2">
-        <v>40940</v>
+        <v>40544</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
         <v>172</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>-2.150537634408611E-2</v>
       </c>
       <c r="F146">
-        <v>8.808333333333334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="B147" s="2">
-        <v>40969</v>
+        <v>40575</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
         <v>173</v>
       </c>
       <c r="E147">
-        <v>-0.01204819277108449</v>
+        <v>-1.098901098901095E-2</v>
       </c>
       <c r="F147">
-        <v>8.741666666666667</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>9.4833333333333343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="B148" s="2">
-        <v>41000</v>
+        <v>40603</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>174</v>
@@ -4172,118 +4281,118 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>8.666666666666666</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>9.4083333333333332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="B149" s="2">
-        <v>41030</v>
+        <v>40634</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
         <v>175</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1.111111111111107E-2</v>
       </c>
       <c r="F149">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>9.3416666666666668</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2">
-        <v>41061</v>
+        <v>40664</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
         <v>176</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>-1.098901098901095E-2</v>
       </c>
       <c r="F150">
-        <v>8.525</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>9.2916666666666661</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="B151" s="2">
-        <v>41091</v>
+        <v>40695</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
         <v>177</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1.111111111111107E-2</v>
       </c>
       <c r="F151">
-        <v>8.458333333333334</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>9.2666666666666675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="B152" s="2">
-        <v>41122</v>
+        <v>40725</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
         <v>178</v>
       </c>
       <c r="E152">
-        <v>-0.01219512195121952</v>
+        <v>-1.098901098901095E-2</v>
       </c>
       <c r="F152">
-        <v>8.383333333333333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>9.2333333333333343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="B153" s="2">
-        <v>41153</v>
+        <v>40756</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153" t="s">
         <v>179</v>
       </c>
       <c r="E153">
-        <v>-0.03703703703703698</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>8.283333333333333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>9.1916666666666682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="B154" s="2">
-        <v>41183</v>
+        <v>40787</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
         <v>180</v>
@@ -4292,158 +4401,158 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>7.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B155" s="2">
-        <v>41214</v>
+        <v>40817</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
         <v>181</v>
       </c>
       <c r="E155">
-        <v>-0.01282051282051277</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F155">
-        <v>8.125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="B156" s="2">
-        <v>41244</v>
+        <v>40848</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
       </c>
       <c r="E156">
-        <v>0.02597402597402598</v>
+        <v>-2.2727272727272822E-2</v>
       </c>
       <c r="F156">
-        <v>8.075000000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="B157" s="2">
-        <v>41275</v>
+        <v>40878</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>183</v>
       </c>
       <c r="E157">
-        <v>0.01265822784810111</v>
+        <v>-1.1627906976744099E-2</v>
       </c>
       <c r="F157">
-        <v>8.049999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>8.9333333333333318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>7.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B158" s="2">
-        <v>41306</v>
+        <v>40909</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
         <v>184</v>
       </c>
       <c r="E158">
-        <v>-0.03749999999999998</v>
+        <v>-2.3529411764705799E-2</v>
       </c>
       <c r="F158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>8.8666666666666671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B159" s="2">
-        <v>41334</v>
+        <v>40940</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
         <v>185</v>
       </c>
       <c r="E159">
-        <v>-0.02597402597402598</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>7.941666666666666</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>8.8083333333333336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B160" s="2">
-        <v>41365</v>
+        <v>40969</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" t="s">
         <v>186</v>
       </c>
       <c r="E160">
-        <v>0.0133333333333332</v>
+        <v>-1.2048192771084491E-2</v>
       </c>
       <c r="F160">
-        <v>7.891666666666667</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>8.7416666666666671</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B161" s="2">
-        <v>41395</v>
+        <v>41000</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
         <v>187</v>
       </c>
       <c r="E161">
-        <v>-0.01315789473684204</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>7.833333333333333</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B162" s="2">
-        <v>41426</v>
+        <v>41030</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>188</v>
@@ -4452,438 +4561,438 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>7.774999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B163" s="2">
-        <v>41456</v>
+        <v>41061</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
         <v>189</v>
       </c>
       <c r="E163">
-        <v>-0.02666666666666673</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>7.699999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>8.5250000000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B164" s="2">
-        <v>41487</v>
+        <v>41091</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D164" t="s">
         <v>190</v>
       </c>
       <c r="E164">
-        <v>-0.01369863013698625</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>7.625</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>8.4583333333333339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="B165" s="2">
-        <v>41518</v>
+        <v>41122</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
         <v>191</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>-1.219512195121952E-2</v>
       </c>
       <c r="F165">
-        <v>7.575</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>8.3833333333333329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="B166" s="2">
-        <v>41548</v>
+        <v>41153</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
         <v>192</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>-3.7037037037036979E-2</v>
       </c>
       <c r="F166">
-        <v>7.525000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>8.2833333333333332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="B167" s="2">
-        <v>41579</v>
+        <v>41183</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
         <v>193</v>
       </c>
       <c r="E167">
-        <v>-0.04166666666666663</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>7.458333333333333</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="B168" s="2">
-        <v>41609</v>
+        <v>41214</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
         <v>194</v>
       </c>
       <c r="E168">
-        <v>-0.02898550724637683</v>
+        <v>-1.282051282051277E-2</v>
       </c>
       <c r="F168">
-        <v>7.358333333333333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="B169" s="2">
-        <v>41640</v>
+        <v>41244</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
         <v>195</v>
       </c>
       <c r="E169">
-        <v>-0.0149253731343284</v>
+        <v>2.5974025974025979E-2</v>
       </c>
       <c r="F169">
-        <v>7.241666666666666</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>8.0750000000000011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="B170" s="2">
-        <v>41671</v>
+        <v>41275</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
         <v>196</v>
       </c>
       <c r="E170">
-        <v>0.01515151515151514</v>
+        <v>1.265822784810111E-2</v>
       </c>
       <c r="F170">
-        <v>7.158333333333332</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="B171" s="2">
-        <v>41699</v>
+        <v>41306</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
         <v>197</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>-3.7499999999999978E-2</v>
       </c>
       <c r="F171">
-        <v>7.091666666666666</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="B172" s="2">
-        <v>41730</v>
+        <v>41334</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
         <v>198</v>
       </c>
       <c r="E172">
-        <v>-0.07462686567164178</v>
+        <v>-2.5974025974025979E-2</v>
       </c>
       <c r="F172">
-        <v>6.975000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>7.9416666666666673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="B173" s="2">
-        <v>41760</v>
+        <v>41365</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
         <v>199</v>
       </c>
       <c r="E173">
-        <v>0.0161290322580645</v>
+        <v>1.3333333333333201E-2</v>
       </c>
       <c r="F173">
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>7.8916666666666666</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="B174" s="2">
-        <v>41791</v>
+        <v>41395</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
         <v>200</v>
       </c>
       <c r="E174">
-        <v>-0.03174603174603174</v>
+        <v>-1.315789473684204E-2</v>
       </c>
       <c r="F174">
-        <v>6.758333333333333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="B175" s="2">
-        <v>41821</v>
+        <v>41426</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>201</v>
       </c>
       <c r="E175">
-        <v>0.01639344262295084</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>7.7749999999999986</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="B176" s="2">
-        <v>41852</v>
+        <v>41456</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
         <v>202</v>
       </c>
       <c r="E176">
-        <v>-0.01612903225806461</v>
+        <v>-2.6666666666666731E-2</v>
       </c>
       <c r="F176">
-        <v>6.575</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="B177" s="2">
-        <v>41883</v>
+        <v>41487</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
         <v>203</v>
       </c>
       <c r="E177">
-        <v>-0.03278688524590156</v>
+        <v>-1.369863013698625E-2</v>
       </c>
       <c r="F177">
-        <v>6.466666666666666</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="B178" s="2">
-        <v>41913</v>
+        <v>41518</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>204</v>
       </c>
       <c r="E178">
-        <v>-0.03389830508474578</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>6.341666666666666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>7.5750000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="B179" s="2">
-        <v>41944</v>
+        <v>41548</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
         <v>205</v>
       </c>
       <c r="E179">
-        <v>0.01754385964912264</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>7.5250000000000012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="B180" s="2">
-        <v>41974</v>
+        <v>41579</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
         <v>206</v>
       </c>
       <c r="E180">
-        <v>-0.03448275862068972</v>
+        <v>-4.166666666666663E-2</v>
       </c>
       <c r="F180">
-        <v>6.158333333333334</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>7.458333333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="B181" s="2">
-        <v>42005</v>
+        <v>41609</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
         <v>207</v>
       </c>
       <c r="E181">
-        <v>0.01785714285714302</v>
+        <v>-2.8985507246376829E-2</v>
       </c>
       <c r="F181">
-        <v>6.083333333333333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>7.3583333333333334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="B182" s="2">
-        <v>42036</v>
+        <v>41640</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
         <v>208</v>
       </c>
       <c r="E182">
-        <v>-0.03508771929824561</v>
+        <v>-1.49253731343284E-2</v>
       </c>
       <c r="F182">
-        <v>5.983333333333333</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>7.2416666666666663</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="B183" s="2">
-        <v>42064</v>
+        <v>41671</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
         <v>209</v>
       </c>
       <c r="E183">
-        <v>-0.01818181818181808</v>
+        <v>1.515151515151514E-2</v>
       </c>
       <c r="F183">
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>7.1583333333333323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="B184" s="2">
-        <v>42095</v>
+        <v>41699</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
         <v>210</v>
@@ -4892,798 +5001,798 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>5.808333333333334</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>7.0916666666666677</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="B185" s="2">
-        <v>42125</v>
+        <v>41730</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
         <v>211</v>
       </c>
       <c r="E185">
-        <v>0.03703703703703698</v>
+        <v>-7.4626865671641784E-2</v>
       </c>
       <c r="F185">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>6.9750000000000014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="B186" s="2">
-        <v>42156</v>
+        <v>41760</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
         <v>212</v>
       </c>
       <c r="E186">
-        <v>-0.05357142857142849</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="F186">
-        <v>5.683333333333334</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="B187" s="2">
-        <v>42186</v>
+        <v>41791</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
         <v>213</v>
       </c>
       <c r="E187">
-        <v>-0.01886792452830177</v>
+        <v>-3.1746031746031737E-2</v>
       </c>
       <c r="F187">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>6.7583333333333329</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="B188" s="2">
-        <v>42217</v>
+        <v>41821</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
         <v>214</v>
       </c>
       <c r="E188">
-        <v>-0.01923076923076938</v>
+        <v>1.6393442622950841E-2</v>
       </c>
       <c r="F188">
-        <v>5.516666666666667</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="B189" s="2">
-        <v>42248</v>
+        <v>41852</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
         <v>215</v>
       </c>
       <c r="E189">
-        <v>-0.01960784313725483</v>
+        <v>-1.6129032258064609E-2</v>
       </c>
       <c r="F189">
-        <v>5.441666666666666</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>6.5750000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="B190" s="2">
-        <v>42278</v>
+        <v>41883</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>216</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>-3.2786885245901558E-2</v>
       </c>
       <c r="F190">
-        <v>5.383333333333333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>6.4666666666666659</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="B191" s="2">
-        <v>42309</v>
+        <v>41913</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
         <v>217</v>
       </c>
       <c r="E191">
-        <v>0.02000000000000002</v>
+        <v>-3.3898305084745783E-2</v>
       </c>
       <c r="F191">
-        <v>5.325</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>6.3416666666666677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="B192" s="2">
-        <v>42339</v>
+        <v>41944</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
         <v>218</v>
       </c>
       <c r="E192">
-        <v>-0.01960784313725483</v>
+        <v>1.754385964912264E-2</v>
       </c>
       <c r="F192">
-        <v>5.275</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="B193" s="2">
-        <v>42370</v>
+        <v>41974</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>219</v>
       </c>
       <c r="E193">
-        <v>-0.04000000000000004</v>
+        <v>-3.4482758620689717E-2</v>
       </c>
       <c r="F193">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>6.1583333333333341</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="B194" s="2">
-        <v>42401</v>
+        <v>42005</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
         <v>220</v>
       </c>
       <c r="E194">
-        <v>0.02083333333333348</v>
+        <v>1.7857142857143019E-2</v>
       </c>
       <c r="F194">
-        <v>5.149999999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>6.083333333333333</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B195" s="2">
-        <v>42430</v>
+        <v>42036</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
         <v>221</v>
       </c>
       <c r="E195">
-        <v>0.02040816326530615</v>
+        <v>-3.5087719298245612E-2</v>
       </c>
       <c r="F195">
-        <v>5.116666666666666</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>5.9833333333333334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="B196" s="2">
-        <v>42461</v>
+        <v>42064</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
         <v>222</v>
       </c>
       <c r="E196">
-        <v>0.02000000000000002</v>
+        <v>-1.818181818181808E-2</v>
       </c>
       <c r="F196">
-        <v>5.091666666666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="B197" s="2">
-        <v>42491</v>
+        <v>42095</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
         <v>223</v>
       </c>
       <c r="E197">
-        <v>-0.05882352941176472</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>5.024999999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>5.8083333333333336</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="B198" s="2">
-        <v>42522</v>
+        <v>42125</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
         <v>224</v>
       </c>
       <c r="E198">
-        <v>0.02083333333333348</v>
+        <v>3.7037037037036979E-2</v>
       </c>
       <c r="F198">
-        <v>4.991666666666667</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="B199" s="2">
-        <v>42552</v>
+        <v>42156</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
         <v>225</v>
       </c>
       <c r="E199">
-        <v>-0.02040816326530626</v>
+        <v>-5.3571428571428492E-2</v>
       </c>
       <c r="F199">
-        <v>4.958333333333333</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="B200" s="2">
-        <v>42583</v>
+        <v>42186</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D200" t="s">
         <v>226</v>
       </c>
       <c r="E200">
-        <v>0.02083333333333348</v>
+        <v>-1.8867924528301772E-2</v>
       </c>
       <c r="F200">
-        <v>4.941666666666666</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B201" s="2">
-        <v>42614</v>
+        <v>42217</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
         <v>227</v>
       </c>
       <c r="E201">
-        <v>0.02040816326530615</v>
+        <v>-1.9230769230769381E-2</v>
       </c>
       <c r="F201">
-        <v>4.941666666666666</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>5.5166666666666666</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="B202" s="2">
-        <v>42644</v>
+        <v>42248</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
         <v>228</v>
       </c>
       <c r="E202">
-        <v>-0.01999999999999991</v>
+        <v>-1.9607843137254829E-2</v>
       </c>
       <c r="F202">
-        <v>4.933333333333334</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>5.4416666666666664</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="B203" s="2">
-        <v>42675</v>
+        <v>42278</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
         <v>229</v>
       </c>
       <c r="E203">
-        <v>-0.04081632653061229</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>4.899999999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>5.3833333333333329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B204" s="2">
-        <v>42705</v>
+        <v>42309</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
         <v>230</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>2.0000000000000021E-2</v>
       </c>
       <c r="F204">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>5.3250000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="B205" s="2">
-        <v>42736</v>
+        <v>42339</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
         <v>231</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>-1.9607843137254829E-2</v>
       </c>
       <c r="F205">
-        <v>4.866666666666666</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>5.2749999999999986</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="B206" s="2">
-        <v>42767</v>
+        <v>42370</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
         <v>232</v>
       </c>
       <c r="E206">
-        <v>-0.02127659574468099</v>
+        <v>-4.0000000000000042E-2</v>
       </c>
       <c r="F206">
-        <v>4.841666666666667</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>4.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B207" s="2">
-        <v>42795</v>
+        <v>42401</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
         <v>233</v>
       </c>
       <c r="E207">
-        <v>-0.04347826086956508</v>
+        <v>2.0833333333333481E-2</v>
       </c>
       <c r="F207">
-        <v>4.791666666666667</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>5.1499999999999986</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B208" s="2">
-        <v>42826</v>
+        <v>42430</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>234</v>
       </c>
       <c r="E208">
-        <v>0.02272727272727271</v>
+        <v>2.0408163265306149E-2</v>
       </c>
       <c r="F208">
-        <v>4.741666666666666</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>5.1166666666666663</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>4.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B209" s="2">
-        <v>42856</v>
+        <v>42461</v>
       </c>
       <c r="C209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
         <v>235</v>
       </c>
       <c r="E209">
-        <v>-0.02222222222222214</v>
+        <v>2.0000000000000021E-2</v>
       </c>
       <c r="F209">
-        <v>4.708333333333334</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>5.0916666666666668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="B210" s="2">
-        <v>42887</v>
+        <v>42491</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
         <v>236</v>
       </c>
       <c r="E210">
-        <v>-0.02272727272727282</v>
+        <v>-5.8823529411764719E-2</v>
       </c>
       <c r="F210">
-        <v>4.658333333333333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>5.0249999999999986</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B211" s="2">
-        <v>42917</v>
+        <v>42522</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D211" t="s">
         <v>237</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>2.0833333333333481E-2</v>
       </c>
       <c r="F211">
-        <v>4.616666666666666</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>4.9916666666666663</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="B212" s="2">
-        <v>42948</v>
+        <v>42552</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
         <v>238</v>
       </c>
       <c r="E212">
-        <v>0.02325581395348841</v>
+        <v>-2.040816326530626E-2</v>
       </c>
       <c r="F212">
-        <v>4.575</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>4.958333333333333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B213" s="2">
-        <v>42979</v>
+        <v>42583</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
         <v>239</v>
       </c>
       <c r="E213">
-        <v>-0.04545454545454553</v>
+        <v>2.0833333333333481E-2</v>
       </c>
       <c r="F213">
-        <v>4.508333333333334</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>4.9416666666666664</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="B214" s="2">
-        <v>43009</v>
+        <v>42614</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
         <v>240</v>
       </c>
       <c r="E214">
-        <v>-0.02380952380952395</v>
+        <v>2.0408163265306149E-2</v>
       </c>
       <c r="F214">
-        <v>4.441666666666667</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>4.9416666666666664</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B215" s="2">
-        <v>43040</v>
+        <v>42644</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
         <v>241</v>
       </c>
       <c r="E215">
-        <v>0.02439024390243905</v>
+        <v>-1.999999999999991E-2</v>
       </c>
       <c r="F215">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>4.9333333333333327</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="B216" s="2">
-        <v>43070</v>
+        <v>42675</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D216" t="s">
         <v>242</v>
       </c>
       <c r="E216">
-        <v>-0.02380952380952395</v>
+        <v>-4.081632653061229E-2</v>
       </c>
       <c r="F216">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="B217" s="2">
-        <v>43101</v>
+        <v>42705</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
         <v>243</v>
       </c>
       <c r="E217">
-        <v>-0.02439024390243894</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>4.291666666666667</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="B218" s="2">
-        <v>43132</v>
+        <v>42736</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
         <v>244</v>
       </c>
       <c r="E218">
-        <v>0.02499999999999991</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>4.8666666666666663</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B219" s="2">
-        <v>43160</v>
+        <v>42767</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
         <v>245</v>
       </c>
       <c r="E219">
-        <v>-0.02439024390243894</v>
+        <v>-2.1276595744680989E-2</v>
       </c>
       <c r="F219">
-        <v>4.216666666666667</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>4.8416666666666668</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B220" s="2">
-        <v>43191</v>
+        <v>42795</v>
       </c>
       <c r="C220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
         <v>246</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>-4.3478260869565077E-2</v>
       </c>
       <c r="F220">
-        <v>4.175</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>4.791666666666667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="B221" s="2">
-        <v>43221</v>
+        <v>42826</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>247</v>
       </c>
       <c r="E221">
-        <v>-0.05000000000000004</v>
+        <v>2.2727272727272711E-2</v>
       </c>
       <c r="F221">
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>4.7416666666666663</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B222" s="2">
-        <v>43252</v>
+        <v>42856</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D222" t="s">
         <v>248</v>
       </c>
       <c r="E222">
-        <v>0.05263157894736836</v>
+        <v>-2.222222222222214E-2</v>
       </c>
       <c r="F222">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>4.708333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="B223" s="2">
-        <v>43282</v>
+        <v>42887</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
         <v>249</v>
       </c>
       <c r="E223">
-        <v>-0.05000000000000004</v>
+        <v>-2.2727272727272822E-2</v>
       </c>
       <c r="F223">
-        <v>4.058333333333334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>4.6583333333333341</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="B224" s="2">
-        <v>43313</v>
+        <v>42917</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
         <v>250</v>
@@ -5692,178 +5801,178 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>4.008333333333333</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>4.6166666666666663</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B225" s="2">
-        <v>43344</v>
+        <v>42948</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
         <v>251</v>
       </c>
       <c r="E225">
-        <v>-0.02631578947368407</v>
+        <v>2.325581395348841E-2</v>
       </c>
       <c r="F225">
-        <v>3.966666666666667</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>4.5750000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="B226" s="2">
-        <v>43374</v>
+        <v>42979</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D226" t="s">
         <v>252</v>
       </c>
       <c r="E226">
-        <v>0.02702702702702697</v>
+        <v>-4.5454545454545532E-2</v>
       </c>
       <c r="F226">
-        <v>3.941666666666666</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>4.5083333333333337</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B227" s="2">
-        <v>43405</v>
+        <v>43009</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D227" t="s">
         <v>253</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>-2.380952380952395E-2</v>
       </c>
       <c r="F227">
-        <v>3.908333333333333</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>4.4416666666666673</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="B228" s="2">
-        <v>43435</v>
+        <v>43040</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
         <v>254</v>
       </c>
       <c r="E228">
-        <v>0.02631578947368429</v>
+        <v>2.439024390243905E-2</v>
       </c>
       <c r="F228">
-        <v>3.891666666666667</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>4.3999999999999986</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B229" s="2">
-        <v>43466</v>
+        <v>43070</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
         <v>255</v>
       </c>
       <c r="E229">
-        <v>0.02564102564102577</v>
+        <v>-2.380952380952395E-2</v>
       </c>
       <c r="F229">
-        <v>3.891666666666667</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="B230" s="2">
-        <v>43497</v>
+        <v>43101</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>256</v>
       </c>
       <c r="E230">
-        <v>-0.05000000000000004</v>
+        <v>-2.4390243902438939E-2</v>
       </c>
       <c r="F230">
-        <v>3.866666666666667</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>4.291666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B231" s="2">
-        <v>43525</v>
+        <v>43132</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
         <v>257</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F231">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="B232" s="2">
-        <v>43556</v>
+        <v>43160</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>258</v>
       </c>
       <c r="E232">
-        <v>-0.02631578947368407</v>
+        <v>-2.4390243902438939E-2</v>
       </c>
       <c r="F232">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>4.2166666666666668</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="B233" s="2">
-        <v>43586</v>
+        <v>43191</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
         <v>259</v>
@@ -5872,138 +5981,138 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>3.816666666666666</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>4.1749999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="B234" s="2">
-        <v>43617</v>
+        <v>43221</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" t="s">
         <v>260</v>
       </c>
       <c r="E234">
-        <v>-0.02702702702702708</v>
+        <v>-5.0000000000000037E-2</v>
       </c>
       <c r="F234">
-        <v>3.783333333333333</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="B235" s="2">
-        <v>43647</v>
+        <v>43252</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
         <v>261</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>5.2631578947368363E-2</v>
       </c>
       <c r="F235">
-        <v>3.766666666666666</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="B236" s="2">
-        <v>43678</v>
+        <v>43282</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>262</v>
       </c>
       <c r="E236">
-        <v>0.0277777777777779</v>
+        <v>-5.0000000000000037E-2</v>
       </c>
       <c r="F236">
-        <v>3.758333333333333</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>4.0583333333333336</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="B237" s="2">
-        <v>43709</v>
+        <v>43313</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
         <v>263</v>
       </c>
       <c r="E237">
-        <v>-0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>3.741666666666667</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>4.0083333333333337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B238" s="2">
-        <v>43739</v>
+        <v>43344</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
         <v>264</v>
       </c>
       <c r="E238">
-        <v>0.02857142857142869</v>
+        <v>-2.631578947368407E-2</v>
       </c>
       <c r="F238">
-        <v>3.725</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>3.9666666666666668</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="B239" s="2">
-        <v>43770</v>
+        <v>43374</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" t="s">
         <v>265</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>2.702702702702697E-2</v>
       </c>
       <c r="F239">
-        <v>3.708333333333333</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>3.941666666666666</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="B240" s="2">
-        <v>43800</v>
+        <v>43405</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
         <v>266</v>
@@ -6012,238 +6121,238 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>3.683333333333334</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>3.9083333333333332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="B241" s="2">
-        <v>43831</v>
+        <v>43435</v>
       </c>
       <c r="C241" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D241" t="s">
         <v>267</v>
       </c>
       <c r="E241">
-        <v>-0.02777777777777779</v>
+        <v>2.6315789473684289E-2</v>
       </c>
       <c r="F241">
-        <v>3.641666666666667</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>3.8916666666666671</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="B242" s="2">
-        <v>43862</v>
+        <v>43466</v>
       </c>
       <c r="C242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D242" t="s">
         <v>268</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>2.5641025641025769E-2</v>
       </c>
       <c r="F242">
-        <v>3.616666666666667</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>3.8916666666666671</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="B243" s="2">
-        <v>43891</v>
+        <v>43497</v>
       </c>
       <c r="C243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
         <v>269</v>
       </c>
       <c r="E243">
-        <v>0.2571428571428573</v>
+        <v>-5.0000000000000037E-2</v>
       </c>
       <c r="F243">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>3.8666666666666671</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>14.8</v>
+        <v>3.8</v>
       </c>
       <c r="B244" s="2">
-        <v>43922</v>
+        <v>43525</v>
       </c>
       <c r="C244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
         <v>270</v>
       </c>
       <c r="E244">
-        <v>2.363636363636363</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>4.591666666666667</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="B245" s="2">
-        <v>43952</v>
+        <v>43556</v>
       </c>
       <c r="C245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D245" t="s">
         <v>271</v>
       </c>
       <c r="E245">
-        <v>-0.1013513513513513</v>
+        <v>-2.631578947368407E-2</v>
       </c>
       <c r="F245">
-        <v>5.391666666666667</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>11.1</v>
+        <v>3.7</v>
       </c>
       <c r="B246" s="2">
-        <v>43983</v>
+        <v>43586</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
         <v>272</v>
       </c>
       <c r="E246">
-        <v>-0.1654135338345866</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>6.016666666666667</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>3.8166666666666669</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>10.2</v>
+        <v>3.6</v>
       </c>
       <c r="B247" s="2">
-        <v>44013</v>
+        <v>43617</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
         <v>273</v>
       </c>
       <c r="E247">
-        <v>-0.08108108108108114</v>
+        <v>-2.7027027027027081E-2</v>
       </c>
       <c r="F247">
-        <v>6.566666666666667</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>3.7833333333333332</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="B248" s="2">
-        <v>44044</v>
+        <v>43647</v>
       </c>
       <c r="C248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D248" t="s">
         <v>274</v>
       </c>
       <c r="E248">
-        <v>-0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>6.958333333333333</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>3.7666666666666662</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="B249" s="2">
-        <v>44075</v>
+        <v>43678</v>
       </c>
       <c r="C249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
         <v>275</v>
       </c>
       <c r="E249">
-        <v>-0.07142857142857151</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="F249">
-        <v>7.316666666666666</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>3.7583333333333329</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="B250" s="2">
-        <v>44105</v>
+        <v>43709</v>
       </c>
       <c r="C250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
         <v>276</v>
       </c>
       <c r="E250">
-        <v>-0.1153846153846153</v>
+        <v>-5.4054054054054057E-2</v>
       </c>
       <c r="F250">
-        <v>7.591666666666668</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>3.7416666666666671</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="B251" s="2">
-        <v>44136</v>
+        <v>43739</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D251" t="s">
         <v>277</v>
       </c>
       <c r="E251">
-        <v>-0.02898550724637683</v>
+        <v>2.8571428571428688E-2</v>
       </c>
       <c r="F251">
-        <v>7.850000000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="B252" s="2">
-        <v>44166</v>
+        <v>43770</v>
       </c>
       <c r="C252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
         <v>278</v>
@@ -6252,230 +6361,492 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>8.108333333333334</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>3.708333333333333</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>6.3</v>
+        <v>3.6</v>
       </c>
       <c r="B253" s="2">
-        <v>44197</v>
+        <v>43800</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D253" t="s">
         <v>279</v>
       </c>
       <c r="E253">
-        <v>-0.05970149253731349</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>8.341666666666667</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>3.6833333333333331</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="B254" s="2">
-        <v>44228</v>
+        <v>43831</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D254" t="s">
         <v>280</v>
       </c>
       <c r="E254">
-        <v>-0.01587301587301582</v>
+        <v>-2.777777777777779E-2</v>
       </c>
       <c r="F254">
-        <v>8.566666666666668</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>3.6416666666666662</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="B255" s="2">
-        <v>44256</v>
+        <v>43862</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D255" t="s">
         <v>281</v>
       </c>
       <c r="E255">
-        <v>-0.03225806451612911</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>8.700000000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>3.6166666666666671</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>6.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B256" s="2">
-        <v>44287</v>
+        <v>43891</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D256" t="s">
         <v>282</v>
       </c>
       <c r="E256">
-        <v>0.01666666666666661</v>
+        <v>0.25714285714285728</v>
       </c>
       <c r="F256">
-        <v>7.975000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>5.8</v>
+        <v>14.8</v>
       </c>
       <c r="B257" s="2">
-        <v>44317</v>
+        <v>43922</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>283</v>
       </c>
       <c r="E257">
-        <v>-0.0491803278688524</v>
+        <v>2.3636363636363629</v>
       </c>
       <c r="F257">
-        <v>7.350000000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>4.5916666666666668</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>5.9</v>
+        <v>13.3</v>
       </c>
       <c r="B258" s="2">
-        <v>44348</v>
+        <v>43952</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>284</v>
       </c>
       <c r="E258">
-        <v>0.01724137931034497</v>
+        <v>-0.1013513513513513</v>
       </c>
       <c r="F258">
-        <v>6.916666666666667</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>5.3916666666666666</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>5.4</v>
+        <v>11.1</v>
       </c>
       <c r="B259" s="2">
-        <v>44378</v>
+        <v>43983</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>285</v>
       </c>
       <c r="E259">
-        <v>-0.0847457627118644</v>
+        <v>-0.1654135338345866</v>
       </c>
       <c r="F259">
-        <v>6.516666666666667</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>6.0166666666666666</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>5.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B260" s="2">
-        <v>44409</v>
+        <v>44013</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>286</v>
       </c>
       <c r="E260">
-        <v>-0.03703703703703709</v>
+        <v>-8.1081081081081141E-2</v>
       </c>
       <c r="F260">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>6.5666666666666664</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="B261" s="2">
-        <v>44440</v>
+        <v>44044</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D261" t="s">
         <v>287</v>
       </c>
       <c r="E261">
-        <v>-0.07692307692307698</v>
+        <v>-0.17647058823529399</v>
       </c>
       <c r="F261">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>6.958333333333333</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
       <c r="B262" s="2">
-        <v>44470</v>
+        <v>44075</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D262" t="s">
         <v>288</v>
       </c>
       <c r="E262">
-        <v>-0.04166666666666674</v>
+        <v>-7.1428571428571508E-2</v>
       </c>
       <c r="F262">
-        <v>5.808333333333334</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>7.3166666666666673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
       <c r="B263" s="2">
-        <v>44501</v>
+        <v>44105</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D263" t="s">
         <v>289</v>
       </c>
       <c r="E263">
-        <v>-0.08695652173913038</v>
+        <v>-0.11538461538461529</v>
       </c>
       <c r="F263">
-        <v>5.600000000000001</v>
+        <v>7.5916666666666659</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>6.7</v>
+      </c>
+      <c r="B264" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" t="s">
+        <v>290</v>
+      </c>
+      <c r="E264">
+        <v>-2.8985507246376829E-2</v>
+      </c>
+      <c r="F264">
+        <v>7.8500000000000014</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>6.7</v>
+      </c>
+      <c r="B265" s="2">
+        <v>44166</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>291</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>8.1083333333333325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>6.3</v>
+      </c>
+      <c r="B266" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C266" t="s">
+        <v>27</v>
+      </c>
+      <c r="D266" t="s">
+        <v>292</v>
+      </c>
+      <c r="E266">
+        <v>-5.9701492537313487E-2</v>
+      </c>
+      <c r="F266">
+        <v>8.3416666666666668</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>6.2</v>
+      </c>
+      <c r="B267" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C267" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267" t="s">
+        <v>293</v>
+      </c>
+      <c r="E267">
+        <v>-1.587301587301582E-2</v>
+      </c>
+      <c r="F267">
+        <v>8.5666666666666664</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>6</v>
+      </c>
+      <c r="B268" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C268" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" t="s">
+        <v>294</v>
+      </c>
+      <c r="E268">
+        <v>-3.2258064516129108E-2</v>
+      </c>
+      <c r="F268">
+        <v>8.7000000000000011</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>6.1</v>
+      </c>
+      <c r="B269" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" t="s">
+        <v>295</v>
+      </c>
+      <c r="E269">
+        <v>1.6666666666666611E-2</v>
+      </c>
+      <c r="F269">
+        <v>7.9749999999999988</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>5.8</v>
+      </c>
+      <c r="B270" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C270" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270" t="s">
+        <v>296</v>
+      </c>
+      <c r="E270">
+        <v>-4.9180327868852403E-2</v>
+      </c>
+      <c r="F270">
+        <v>7.3499999999999988</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>5.9</v>
+      </c>
+      <c r="B271" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" t="s">
+        <v>297</v>
+      </c>
+      <c r="E271">
+        <v>1.724137931034497E-2</v>
+      </c>
+      <c r="F271">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>5.4</v>
+      </c>
+      <c r="B272" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C272" t="s">
+        <v>27</v>
+      </c>
+      <c r="D272" t="s">
+        <v>298</v>
+      </c>
+      <c r="E272">
+        <v>-8.4745762711864403E-2</v>
+      </c>
+      <c r="F272">
+        <v>6.5166666666666666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>5.2</v>
+      </c>
+      <c r="B273" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C273" t="s">
+        <v>27</v>
+      </c>
+      <c r="D273" t="s">
+        <v>299</v>
+      </c>
+      <c r="E273">
+        <v>-3.703703703703709E-2</v>
+      </c>
+      <c r="F273">
+        <v>6.2500000000000009</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>4.8</v>
+      </c>
+      <c r="B274" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274" t="s">
+        <v>300</v>
+      </c>
+      <c r="E274">
+        <v>-7.6923076923076983E-2</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B275" s="2">
+        <v>44470</v>
+      </c>
+      <c r="C275" t="s">
+        <v>27</v>
+      </c>
+      <c r="D275" t="s">
+        <v>301</v>
+      </c>
+      <c r="E275">
+        <v>-4.1666666666666741E-2</v>
+      </c>
+      <c r="F275">
+        <v>5.8083333333333336</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>4.2</v>
+      </c>
+      <c r="B276" s="2">
+        <v>44501</v>
+      </c>
+      <c r="C276" t="s">
+        <v>27</v>
+      </c>
+      <c r="D276" t="s">
+        <v>302</v>
+      </c>
+      <c r="E276">
+        <v>-8.6956521739130377E-2</v>
+      </c>
+      <c r="F276">
+        <v>5.6000000000000014</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/portfolio/US-UNEMPLOYMENT-data.xlsx
+++ b/portfolio/US-UNEMPLOYMENT-data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PlayGround\Desktop\gittemp\portfolio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844045BD-3F84-4404-8135-379B0A799BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="UEM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="305">
   <si>
     <t>UNEMPLOYMENT_RATE</t>
   </si>
@@ -31,6 +25,9 @@
     <t>YEAR</t>
   </si>
   <si>
+    <t>YEAR_MONTH</t>
+  </si>
+  <si>
     <t>UEM_CHANGE</t>
   </si>
   <si>
@@ -931,22 +928,21 @@
     <t>202111</t>
   </si>
   <si>
-    <t>YEAR_MONTH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>202112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -954,15 +950,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1006,26 +995,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1067,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,27 +1080,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,24 +1114,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1344,23 +1289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,16 +1307,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>4.3</v>
       </c>
@@ -1388,30 +1324,30 @@
         <v>36161</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B3" s="2">
         <v>36192</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>2.325581395348841E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.02325581395348841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4.2</v>
       </c>
@@ -1419,16 +1355,16 @@
         <v>36220</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>-4.5454545454545532E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-0.04545454545454553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4.3</v>
       </c>
@@ -1436,16 +1372,16 @@
         <v>36251</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>2.3809523809523721E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.02380952380952372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4.2</v>
       </c>
@@ -1453,16 +1389,16 @@
         <v>36281</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>-2.3255813953488299E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-0.0232558139534883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4.3</v>
       </c>
@@ -1470,16 +1406,16 @@
         <v>36312</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>2.3809523809523721E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.02380952380952372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4.3</v>
       </c>
@@ -1487,16 +1423,16 @@
         <v>36342</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4.2</v>
       </c>
@@ -1504,16 +1440,16 @@
         <v>36373</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>-2.3255813953488299E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-0.0232558139534883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>4.2</v>
       </c>
@@ -1521,50 +1457,50 @@
         <v>36404</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B11" s="2">
         <v>36434</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>-2.380952380952395E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-0.02380952380952395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B12" s="2">
         <v>36465</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1572,19 +1508,19 @@
         <v>36495</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>-2.4390243902438939E-2</v>
+        <v>-0.02439024390243894</v>
       </c>
       <c r="F13">
-        <v>4.2166666666666668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.216666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1592,39 +1528,39 @@
         <v>36526</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.1916666666666673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.191666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B15" s="2">
         <v>36557</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>2.4999999999999911E-2</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="F15">
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1632,19 +1568,19 @@
         <v>36586</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>-2.4390243902438939E-2</v>
+        <v>-0.02439024390243894</v>
       </c>
       <c r="F16">
-        <v>4.1499999999999986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.149999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3.8</v>
       </c>
@@ -1652,19 +1588,19 @@
         <v>36617</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>-5.0000000000000037E-2</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F17">
-        <v>4.1083333333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.108333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1672,19 +1608,19 @@
         <v>36647</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>5.2631578947368363E-2</v>
+        <v>0.05263157894736836</v>
       </c>
       <c r="F18">
-        <v>4.0916666666666668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.091666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1692,19 +1628,19 @@
         <v>36678</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.0666666666666664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.066666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1712,10 +1648,10 @@
         <v>36708</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1724,27 +1660,27 @@
         <v>4.041666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B21" s="2">
         <v>36739</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>2.4999999999999911E-2</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="F21">
-        <v>4.0333333333333332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.033333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>3.9</v>
       </c>
@@ -1752,19 +1688,19 @@
         <v>36770</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>-4.8780487804877981E-2</v>
+        <v>-0.04878048780487798</v>
       </c>
       <c r="F22">
-        <v>4.0083333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.008333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3.9</v>
       </c>
@@ -1772,19 +1708,19 @@
         <v>36800</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.9916666666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.991666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3.9</v>
       </c>
@@ -1792,19 +1728,19 @@
         <v>36831</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.9750000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>3.9</v>
       </c>
@@ -1812,19 +1748,19 @@
         <v>36861</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.9666666666666659</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.966666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>4.2</v>
       </c>
@@ -1832,19 +1768,19 @@
         <v>36892</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>7.6923076923077094E-2</v>
+        <v>0.07692307692307709</v>
       </c>
       <c r="F26">
-        <v>3.9833333333333329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.983333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>4.2</v>
       </c>
@@ -1852,19 +1788,19 @@
         <v>36923</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3.9916666666666671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.991666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>4.3</v>
       </c>
@@ -1872,39 +1808,39 @@
         <v>36951</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>2.3809523809523721E-2</v>
+        <v>0.02380952380952372</v>
       </c>
       <c r="F28">
-        <v>4.0166666666666666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.016666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B29" s="2">
         <v>36982</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>2.325581395348841E-2</v>
+        <v>0.02325581395348841</v>
       </c>
       <c r="F29">
-        <v>4.0666666666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.066666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4.3</v>
       </c>
@@ -1912,19 +1848,19 @@
         <v>37012</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>-2.2727272727272822E-2</v>
+        <v>-0.02272727272727282</v>
       </c>
       <c r="F30">
-        <v>4.0916666666666668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.091666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4.5</v>
       </c>
@@ -1932,59 +1868,59 @@
         <v>37043</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>4.6511627906976827E-2</v>
+        <v>0.04651162790697683</v>
       </c>
       <c r="F31">
-        <v>4.1333333333333337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.133333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B32" s="2">
         <v>37073</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>2.222222222222214E-2</v>
+        <v>0.02222222222222214</v>
       </c>
       <c r="F32">
-        <v>4.1833333333333327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.183333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B33" s="2">
         <v>37104</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>6.5217391304347894E-2</v>
+        <v>0.06521739130434789</v>
       </c>
       <c r="F33">
         <v>4.25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1992,19 +1928,19 @@
         <v>37135</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>2.0408163265306149E-2</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="F34">
-        <v>4.3416666666666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.341666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5.3</v>
       </c>
@@ -2012,19 +1948,19 @@
         <v>37165</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>6.0000000000000053E-2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="F35">
         <v>4.458333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5.5</v>
       </c>
@@ -2032,19 +1968,19 @@
         <v>37196</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>3.7735849056603772E-2</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="F36">
-        <v>4.5916666666666668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.591666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>5.7</v>
       </c>
@@ -2052,19 +1988,19 @@
         <v>37226</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>3.6363636363636383E-2</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="F37">
-        <v>4.7416666666666671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.741666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>5.7</v>
       </c>
@@ -2072,19 +2008,19 @@
         <v>37257</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4.8666666666666663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.866666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>5.7</v>
       </c>
@@ -2092,19 +2028,19 @@
         <v>37288</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.9916666666666663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.991666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>5.7</v>
       </c>
@@ -2112,19 +2048,19 @@
         <v>37316</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>5.1083333333333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.108333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>5.9</v>
       </c>
@@ -2132,19 +2068,19 @@
         <v>37347</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>3.5087719298245723E-2</v>
+        <v>0.03508771929824572</v>
       </c>
       <c r="F41">
-        <v>5.2333333333333334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.233333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>5.8</v>
       </c>
@@ -2152,19 +2088,19 @@
         <v>37377</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
-        <v>-1.6949152542372951E-2</v>
+        <v>-0.01694915254237295</v>
       </c>
       <c r="F42">
-        <v>5.3583333333333334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.358333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>5.8</v>
       </c>
@@ -2172,19 +2108,19 @@
         <v>37408</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>5.4666666666666659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.466666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>5.8</v>
       </c>
@@ -2192,19 +2128,19 @@
         <v>37438</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>5.5666666666666664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.566666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>5.7</v>
       </c>
@@ -2212,19 +2148,19 @@
         <v>37469</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
-        <v>-1.7241379310344751E-2</v>
+        <v>-0.01724137931034475</v>
       </c>
       <c r="F45">
-        <v>5.6333333333333329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.633333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>5.7</v>
       </c>
@@ -2232,19 +2168,19 @@
         <v>37500</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>5.6916666666666664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.691666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>5.7</v>
       </c>
@@ -2252,19 +2188,19 @@
         <v>37530</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>5.7250000000000014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.725000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>5.9</v>
       </c>
@@ -2272,19 +2208,19 @@
         <v>37561</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
-        <v>3.5087719298245723E-2</v>
+        <v>0.03508771929824572</v>
       </c>
       <c r="F48">
-        <v>5.7583333333333329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.758333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2292,19 +2228,19 @@
         <v>37591</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
-        <v>1.694915254237284E-2</v>
+        <v>0.01694915254237284</v>
       </c>
       <c r="F49">
-        <v>5.7833333333333341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.783333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>5.8</v>
       </c>
@@ -2312,19 +2248,19 @@
         <v>37622</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
-        <v>-3.3333333333333333E-2</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="F50">
         <v>5.791666666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>5.9</v>
       </c>
@@ -2332,19 +2268,19 @@
         <v>37653</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
-        <v>1.724137931034497E-2</v>
+        <v>0.01724137931034497</v>
       </c>
       <c r="F51">
-        <v>5.8083333333333336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.808333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>5.9</v>
       </c>
@@ -2352,19 +2288,19 @@
         <v>37681</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5.8249999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.824999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2372,19 +2308,19 @@
         <v>37712</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
-        <v>1.694915254237284E-2</v>
+        <v>0.01694915254237284</v>
       </c>
       <c r="F53">
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>6.1</v>
       </c>
@@ -2392,19 +2328,19 @@
         <v>37742</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>1.6666666666666611E-2</v>
+        <v>0.01666666666666661</v>
       </c>
       <c r="F54">
-        <v>5.8583333333333334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.858333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>6.3</v>
       </c>
@@ -2412,19 +2348,19 @@
         <v>37773</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
-        <v>3.2786885245901683E-2</v>
+        <v>0.03278688524590168</v>
       </c>
       <c r="F55">
-        <v>5.9000000000000012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.900000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>6.2</v>
       </c>
@@ -2432,19 +2368,19 @@
         <v>37803</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
-        <v>-1.587301587301582E-2</v>
+        <v>-0.01587301587301582</v>
       </c>
       <c r="F56">
-        <v>5.9333333333333336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.933333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>6.1</v>
       </c>
@@ -2452,19 +2388,19 @@
         <v>37834</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
-        <v>-1.6129032258064609E-2</v>
+        <v>-0.01612903225806461</v>
       </c>
       <c r="F57">
-        <v>5.9666666666666677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.966666666666668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>6.1</v>
       </c>
@@ -2472,10 +2408,10 @@
         <v>37865</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2484,7 +2420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2492,19 +2428,19 @@
         <v>37895</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
-        <v>-1.639344262295073E-2</v>
+        <v>-0.01639344262295073</v>
       </c>
       <c r="F59">
-        <v>6.0249999999999986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.024999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -2512,19 +2448,19 @@
         <v>37926</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
-        <v>-3.3333333333333333E-2</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="F60">
-        <v>6.0166666666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.016666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>5.7</v>
       </c>
@@ -2532,19 +2468,19 @@
         <v>37956</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
-        <v>-1.7241379310344751E-2</v>
+        <v>-0.01724137931034475</v>
       </c>
       <c r="F61">
-        <v>5.9916666666666663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.991666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>5.7</v>
       </c>
@@ -2552,19 +2488,19 @@
         <v>37987</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>5.9833333333333334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.983333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>5.6</v>
       </c>
@@ -2572,19 +2508,19 @@
         <v>38018</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
-        <v>-1.7543859649122862E-2</v>
+        <v>-0.01754385964912286</v>
       </c>
       <c r="F63">
         <v>5.958333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>5.8</v>
       </c>
@@ -2592,19 +2528,19 @@
         <v>38047</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
-        <v>3.5714285714285809E-2</v>
+        <v>0.03571428571428581</v>
       </c>
       <c r="F64">
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.949999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>5.6</v>
       </c>
@@ -2612,19 +2548,19 @@
         <v>38078</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
-        <v>-3.4482758620689717E-2</v>
+        <v>-0.03448275862068972</v>
       </c>
       <c r="F65">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -2632,10 +2568,10 @@
         <v>38108</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2644,7 +2580,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>5.6</v>
       </c>
@@ -2652,19 +2588,19 @@
         <v>38139</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>5.8166666666666664</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.816666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>5.5</v>
       </c>
@@ -2672,19 +2608,19 @@
         <v>38169</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
-        <v>-1.785714285714279E-2</v>
+        <v>-0.01785714285714279</v>
       </c>
       <c r="F68">
-        <v>5.7583333333333329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.758333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>5.4</v>
       </c>
@@ -2692,19 +2628,19 @@
         <v>38200</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
-        <v>-1.818181818181808E-2</v>
+        <v>-0.01818181818181808</v>
       </c>
       <c r="F69">
         <v>5.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>5.4</v>
       </c>
@@ -2712,19 +2648,19 @@
         <v>38231</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5.6416666666666666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.641666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>5.5</v>
       </c>
@@ -2732,19 +2668,19 @@
         <v>38261</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
-        <v>1.8518518518518379E-2</v>
+        <v>0.01851851851851838</v>
       </c>
       <c r="F71">
-        <v>5.6000000000000014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>5.4</v>
       </c>
@@ -2752,19 +2688,19 @@
         <v>38292</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
-        <v>-1.818181818181808E-2</v>
+        <v>-0.01818181818181808</v>
       </c>
       <c r="F72">
-        <v>5.5666666666666664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.566666666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>5.4</v>
       </c>
@@ -2772,10 +2708,10 @@
         <v>38322</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2784,7 +2720,7 @@
         <v>5.541666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>5.3</v>
       </c>
@@ -2792,19 +2728,19 @@
         <v>38353</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
-        <v>-1.8518518518518601E-2</v>
+        <v>-0.0185185185185186</v>
       </c>
       <c r="F74">
-        <v>5.5083333333333329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.508333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>5.4</v>
       </c>
@@ -2812,19 +2748,19 @@
         <v>38384</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
-        <v>1.8867924528301879E-2</v>
+        <v>0.01886792452830188</v>
       </c>
       <c r="F75">
-        <v>5.4916666666666671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.491666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>5.2</v>
       </c>
@@ -2832,19 +2768,19 @@
         <v>38412</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
-        <v>-3.703703703703709E-2</v>
+        <v>-0.03703703703703709</v>
       </c>
       <c r="F76">
-        <v>5.4416666666666664</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.441666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>5.2</v>
       </c>
@@ -2852,39 +2788,39 @@
         <v>38443</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>5.4083333333333341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.408333333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B78" s="2">
         <v>38473</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
-        <v>-1.9230769230769381E-2</v>
+        <v>-0.01923076923076938</v>
       </c>
       <c r="F78">
-        <v>5.3666666666666671</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.366666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2892,19 +2828,19 @@
         <v>38504</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
-        <v>-1.9607843137254829E-2</v>
+        <v>-0.01960784313725483</v>
       </c>
       <c r="F79">
-        <v>5.3166666666666673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.316666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2912,39 +2848,39 @@
         <v>38534</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>5.2750000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B81" s="2">
         <v>38565</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81">
-        <v>-1.999999999999991E-2</v>
+        <v>-0.01999999999999991</v>
       </c>
       <c r="F81">
-        <v>5.2333333333333334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.233333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2952,19 +2888,19 @@
         <v>38596</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82">
-        <v>2.0408163265306149E-2</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="F82">
         <v>5.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>5</v>
       </c>
@@ -2972,19 +2908,19 @@
         <v>38626</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>5.1583333333333332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.158333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2992,10 +2928,10 @@
         <v>38657</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3004,27 +2940,27 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B85" s="2">
         <v>38687</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85">
-        <v>-1.999999999999991E-2</v>
+        <v>-0.01999999999999991</v>
       </c>
       <c r="F85">
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4.7</v>
       </c>
@@ -3032,19 +2968,19 @@
         <v>38718</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86">
-        <v>-4.081632653061229E-2</v>
+        <v>-0.04081632653061229</v>
       </c>
       <c r="F86">
-        <v>5.0333333333333341</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.033333333333334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4.8</v>
       </c>
@@ -3052,19 +2988,19 @@
         <v>38749</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87">
-        <v>2.1276595744680771E-2</v>
+        <v>0.02127659574468077</v>
       </c>
       <c r="F87">
-        <v>4.9833333333333334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.983333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4.7</v>
       </c>
@@ -3072,19 +3008,19 @@
         <v>38777</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88">
-        <v>-2.0833333333333259E-2</v>
+        <v>-0.02083333333333326</v>
       </c>
       <c r="F88">
-        <v>4.9416666666666673</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.941666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4.7</v>
       </c>
@@ -3092,59 +3028,59 @@
         <v>38808</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4.8999999999999986</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.899999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B90" s="2">
         <v>38838</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90">
-        <v>-2.1276595744680989E-2</v>
+        <v>-0.02127659574468099</v>
       </c>
       <c r="F90">
-        <v>4.8583333333333334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.858333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B91" s="2">
         <v>38869</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4.8250000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4.7</v>
       </c>
@@ -3152,19 +3088,19 @@
         <v>38899</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E92">
-        <v>2.1739130434782709E-2</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="F92">
         <v>4.8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4.7</v>
       </c>
@@ -3172,19 +3108,19 @@
         <v>38930</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4.7833333333333332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.783333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4.5</v>
       </c>
@@ -3192,39 +3128,39 @@
         <v>38961</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94">
-        <v>-4.2553191489361757E-2</v>
+        <v>-0.04255319148936176</v>
       </c>
       <c r="F94">
-        <v>4.7416666666666663</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.741666666666666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B95" s="2">
         <v>38991</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E95">
-        <v>-2.222222222222214E-2</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="F95">
-        <v>4.6916666666666664</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.691666666666666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4.5</v>
       </c>
@@ -3232,59 +3168,59 @@
         <v>39022</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96">
-        <v>2.2727272727272711E-2</v>
+        <v>0.02272727272727271</v>
       </c>
       <c r="F96">
-        <v>4.6499999999999986</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.649999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B97" s="2">
         <v>39052</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E97">
-        <v>-2.222222222222214E-2</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="F97">
-        <v>4.6083333333333334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.608333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B98" s="2">
         <v>39083</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E98">
-        <v>4.5454545454545192E-2</v>
+        <v>0.04545454545454519</v>
       </c>
       <c r="F98">
-        <v>4.6000000000000014</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.600000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4.5</v>
       </c>
@@ -3292,39 +3228,39 @@
         <v>39114</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E99">
-        <v>-2.173913043478248E-2</v>
+        <v>-0.02173913043478248</v>
       </c>
       <c r="F99">
-        <v>4.5750000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B100" s="2">
         <v>39142</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100">
-        <v>-2.222222222222214E-2</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="F100">
         <v>4.55</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4.5</v>
       </c>
@@ -3332,59 +3268,59 @@
         <v>39173</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101">
-        <v>2.2727272727272711E-2</v>
+        <v>0.02272727272727271</v>
       </c>
       <c r="F101">
-        <v>4.5333333333333341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.533333333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B102" s="2">
         <v>39203</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E102">
-        <v>-2.222222222222214E-2</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="F102">
-        <v>4.5166666666666666</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.516666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B103" s="2">
         <v>39234</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E103">
-        <v>4.5454545454545192E-2</v>
+        <v>0.04545454545454519</v>
       </c>
       <c r="F103">
-        <v>4.5166666666666666</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.516666666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>4.7</v>
       </c>
@@ -3392,39 +3328,39 @@
         <v>39264</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E104">
-        <v>2.1739130434782709E-2</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="F104">
-        <v>4.5166666666666666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.516666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B105" s="2">
         <v>39295</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E105">
-        <v>-2.1276595744680989E-2</v>
+        <v>-0.02127659574468099</v>
       </c>
       <c r="F105">
-        <v>4.5083333333333337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.508333333333334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>4.7</v>
       </c>
@@ -3432,19 +3368,19 @@
         <v>39326</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E106">
-        <v>2.1739130434782709E-2</v>
+        <v>0.02173913043478271</v>
       </c>
       <c r="F106">
-        <v>4.5250000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>4.7</v>
       </c>
@@ -3452,10 +3388,10 @@
         <v>39356</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -3464,7 +3400,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>4.7</v>
       </c>
@@ -3472,19 +3408,19 @@
         <v>39387</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>4.5666666666666664</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.566666666666666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3492,19 +3428,19 @@
         <v>39417</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E109">
-        <v>6.3829787234042534E-2</v>
+        <v>0.06382978723404253</v>
       </c>
       <c r="F109">
-        <v>4.6166666666666663</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.616666666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3512,59 +3448,59 @@
         <v>39448</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>4.6499999999999986</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.649999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B111" s="2">
         <v>39479</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E111">
-        <v>-1.999999999999991E-2</v>
+        <v>-0.01999999999999991</v>
       </c>
       <c r="F111">
-        <v>4.6833333333333327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.683333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B112" s="2">
         <v>39508</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E112">
-        <v>4.0816326530612068E-2</v>
+        <v>0.04081632653061207</v>
       </c>
       <c r="F112">
-        <v>4.7416666666666663</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.741666666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3572,19 +3508,19 @@
         <v>39539</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E113">
-        <v>-1.9607843137254829E-2</v>
+        <v>-0.01960784313725483</v>
       </c>
       <c r="F113">
-        <v>4.7833333333333332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.783333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5.4</v>
       </c>
@@ -3592,19 +3528,19 @@
         <v>39569</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E114">
-        <v>8.0000000000000071E-2</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="F114">
-        <v>4.8666666666666663</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.866666666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5.6</v>
       </c>
@@ -3612,19 +3548,19 @@
         <v>39600</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E115">
-        <v>3.7037037037036979E-2</v>
+        <v>0.03703703703703698</v>
       </c>
       <c r="F115">
         <v>4.95</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -3632,19 +3568,19 @@
         <v>39630</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116">
-        <v>3.5714285714285809E-2</v>
+        <v>0.03571428571428581</v>
       </c>
       <c r="F116">
         <v>5.041666666666667</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>6.1</v>
       </c>
@@ -3652,19 +3588,19 @@
         <v>39661</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117">
-        <v>5.1724137931034482E-2</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="F117">
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>6.1</v>
       </c>
@@ -3672,19 +3608,19 @@
         <v>39692</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>5.2833333333333332</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.283333333333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>6.5</v>
       </c>
@@ -3692,19 +3628,19 @@
         <v>39722</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E119">
-        <v>6.5573770491803351E-2</v>
+        <v>0.06557377049180335</v>
       </c>
       <c r="F119">
-        <v>5.4333333333333336</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.433333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>6.8</v>
       </c>
@@ -3712,19 +3648,19 @@
         <v>39753</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120">
-        <v>4.6153846153846212E-2</v>
+        <v>0.04615384615384621</v>
       </c>
       <c r="F120">
-        <v>5.6083333333333334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.608333333333333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>7.3</v>
       </c>
@@ -3732,19 +3668,19 @@
         <v>39783</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121">
-        <v>7.3529411764705843E-2</v>
+        <v>0.07352941176470584</v>
       </c>
       <c r="F121">
         <v>5.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>7.8</v>
       </c>
@@ -3752,59 +3688,59 @@
         <v>39814</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122">
-        <v>6.8493150684931559E-2</v>
+        <v>0.06849315068493156</v>
       </c>
       <c r="F122">
-        <v>6.0333333333333341</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.033333333333334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B123" s="2">
         <v>39845</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E123">
-        <v>6.4102564102564319E-2</v>
+        <v>0.06410256410256432</v>
       </c>
       <c r="F123">
-        <v>6.3166666666666664</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.316666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B124" s="2">
         <v>39873</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E124">
-        <v>4.8192771084337283E-2</v>
+        <v>0.04819277108433728</v>
       </c>
       <c r="F124">
-        <v>6.6166666666666671</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.616666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>9</v>
       </c>
@@ -3812,19 +3748,19 @@
         <v>39904</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125">
-        <v>3.4482758620689717E-2</v>
+        <v>0.03448275862068972</v>
       </c>
       <c r="F125">
         <v>6.95</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>9.4</v>
       </c>
@@ -3832,19 +3768,19 @@
         <v>39934</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126">
-        <v>4.4444444444444509E-2</v>
+        <v>0.04444444444444451</v>
       </c>
       <c r="F126">
-        <v>7.2833333333333323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.283333333333332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>9.5</v>
       </c>
@@ -3852,19 +3788,19 @@
         <v>39965</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E127">
-        <v>1.06382978723405E-2</v>
+        <v>0.0106382978723405</v>
       </c>
       <c r="F127">
-        <v>7.6083333333333334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.608333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>9.5</v>
       </c>
@@ -3872,10 +3808,10 @@
         <v>39995</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3884,7 +3820,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>9.6</v>
       </c>
@@ -3892,39 +3828,39 @@
         <v>40026</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E129">
-        <v>1.052631578947372E-2</v>
+        <v>0.01052631578947372</v>
       </c>
       <c r="F129">
-        <v>8.2083333333333339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.208333333333334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B130" s="2">
         <v>40057</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E130">
-        <v>2.0833333333333481E-2</v>
+        <v>0.02083333333333348</v>
       </c>
       <c r="F130">
-        <v>8.5166666666666675</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.516666666666667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>10</v>
       </c>
@@ -3932,19 +3868,19 @@
         <v>40087</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E131">
-        <v>2.0408163265306149E-2</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="F131">
-        <v>8.8083333333333336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.808333333333334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>9.9</v>
       </c>
@@ -3952,19 +3888,19 @@
         <v>40118</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E132">
-        <v>-1.0000000000000011E-2</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="F132">
-        <v>9.0666666666666664</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.066666666666666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>9.9</v>
       </c>
@@ -3972,59 +3908,59 @@
         <v>40148</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>9.2833333333333332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.283333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B134" s="2">
         <v>40179</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E134">
-        <v>-1.010101010101006E-2</v>
+        <v>-0.01010101010101006</v>
       </c>
       <c r="F134">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B135" s="2">
         <v>40210</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>9.5750000000000011</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.575000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>9.9</v>
       </c>
@@ -4032,19 +3968,19 @@
         <v>40238</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E136">
-        <v>1.020408163265296E-2</v>
+        <v>0.01020408163265296</v>
       </c>
       <c r="F136">
-        <v>9.6750000000000007</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.675000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>9.9</v>
       </c>
@@ -4052,10 +3988,10 @@
         <v>40269</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4064,7 +4000,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>9.6</v>
       </c>
@@ -4072,19 +4008,19 @@
         <v>40299</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E138">
-        <v>-3.0303030303030391E-2</v>
+        <v>-0.03030303030303039</v>
       </c>
       <c r="F138">
-        <v>9.7666666666666675</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.766666666666667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>9.4</v>
       </c>
@@ -4092,19 +4028,19 @@
         <v>40330</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E139">
-        <v>-2.0833333333333259E-2</v>
+        <v>-0.02083333333333326</v>
       </c>
       <c r="F139">
-        <v>9.7583333333333346</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.758333333333335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>9.4</v>
       </c>
@@ -4112,10 +4048,10 @@
         <v>40360</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4124,7 +4060,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>9.5</v>
       </c>
@@ -4132,19 +4068,19 @@
         <v>40391</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E141">
-        <v>1.06382978723405E-2</v>
+        <v>0.0106382978723405</v>
       </c>
       <c r="F141">
-        <v>9.7416666666666671</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.741666666666667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>9.5</v>
       </c>
@@ -4152,19 +4088,19 @@
         <v>40422</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>9.7166666666666668</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.716666666666667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>9.4</v>
       </c>
@@ -4172,59 +4108,59 @@
         <v>40452</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E143">
-        <v>-1.0526315789473609E-2</v>
+        <v>-0.01052631578947361</v>
       </c>
       <c r="F143">
-        <v>9.6666666666666661</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.666666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B144" s="2">
         <v>40483</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E144">
-        <v>4.2553191489361757E-2</v>
+        <v>0.04255319148936176</v>
       </c>
       <c r="F144">
-        <v>9.6583333333333332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.658333333333333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B145" s="2">
         <v>40513</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E145">
-        <v>-5.1020408163265252E-2</v>
+        <v>-0.05102040816326525</v>
       </c>
       <c r="F145">
-        <v>9.6083333333333343</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.608333333333334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>9.1</v>
       </c>
@@ -4232,19 +4168,19 @@
         <v>40544</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E146">
-        <v>-2.150537634408611E-2</v>
+        <v>-0.02150537634408611</v>
       </c>
       <c r="F146">
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>9</v>
       </c>
@@ -4252,19 +4188,19 @@
         <v>40575</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E147">
-        <v>-1.098901098901095E-2</v>
+        <v>-0.01098901098901095</v>
       </c>
       <c r="F147">
-        <v>9.4833333333333343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.483333333333334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>9</v>
       </c>
@@ -4272,19 +4208,19 @@
         <v>40603</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>9.4083333333333332</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.408333333333333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>9.1</v>
       </c>
@@ -4292,19 +4228,19 @@
         <v>40634</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E149">
-        <v>1.111111111111107E-2</v>
+        <v>0.01111111111111107</v>
       </c>
       <c r="F149">
-        <v>9.3416666666666668</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.341666666666667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>9</v>
       </c>
@@ -4312,19 +4248,19 @@
         <v>40664</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E150">
-        <v>-1.098901098901095E-2</v>
+        <v>-0.01098901098901095</v>
       </c>
       <c r="F150">
-        <v>9.2916666666666661</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.291666666666666</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>9.1</v>
       </c>
@@ -4332,19 +4268,19 @@
         <v>40695</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E151">
-        <v>1.111111111111107E-2</v>
+        <v>0.01111111111111107</v>
       </c>
       <c r="F151">
-        <v>9.2666666666666675</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.266666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>9</v>
       </c>
@@ -4352,19 +4288,19 @@
         <v>40725</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E152">
-        <v>-1.098901098901095E-2</v>
+        <v>-0.01098901098901095</v>
       </c>
       <c r="F152">
-        <v>9.2333333333333343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.233333333333334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>9</v>
       </c>
@@ -4372,19 +4308,19 @@
         <v>40756</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>9.1916666666666682</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.191666666666668</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>9</v>
       </c>
@@ -4392,10 +4328,10 @@
         <v>40787</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -4404,27 +4340,27 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B155" s="2">
         <v>40817</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E155">
-        <v>-2.222222222222214E-2</v>
+        <v>-0.02222222222222214</v>
       </c>
       <c r="F155">
         <v>9.1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>8.6</v>
       </c>
@@ -4432,19 +4368,19 @@
         <v>40848</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E156">
-        <v>-2.2727272727272822E-2</v>
+        <v>-0.02272727272727282</v>
       </c>
       <c r="F156">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>8.5</v>
       </c>
@@ -4452,110 +4388,110 @@
         <v>40878</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E157">
-        <v>-1.1627906976744099E-2</v>
+        <v>-0.0116279069767441</v>
       </c>
       <c r="F157">
-        <v>8.9333333333333318</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.933333333333332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B158" s="2">
         <v>40909</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E158">
-        <v>-2.3529411764705799E-2</v>
+        <v>-0.0235294117647058</v>
       </c>
       <c r="F158">
-        <v>8.8666666666666671</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.866666666666667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B159" s="2">
         <v>40940</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>8.8083333333333336</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.808333333333334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B160" s="2">
         <v>40969</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E160">
-        <v>-1.2048192771084491E-2</v>
+        <v>-0.01204819277108449</v>
       </c>
       <c r="F160">
-        <v>8.7416666666666671</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.741666666666667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B161" s="2">
         <v>41000</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <v>8.6666666666666661</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.666666666666666</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B162" s="2">
         <v>41030</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4564,47 +4500,47 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B163" s="2">
         <v>41061</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>8.5250000000000004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.525</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B164" s="2">
         <v>41091</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>8.4583333333333339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.458333333333334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>8.1</v>
       </c>
@@ -4612,19 +4548,19 @@
         <v>41122</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E165">
-        <v>-1.219512195121952E-2</v>
+        <v>-0.01219512195121952</v>
       </c>
       <c r="F165">
-        <v>8.3833333333333329</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.383333333333333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>7.8</v>
       </c>
@@ -4632,19 +4568,19 @@
         <v>41153</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E166">
-        <v>-3.7037037037036979E-2</v>
+        <v>-0.03703703703703698</v>
       </c>
       <c r="F166">
-        <v>8.2833333333333332</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.283333333333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>7.8</v>
       </c>
@@ -4652,19 +4588,19 @@
         <v>41183</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>7.7</v>
       </c>
@@ -4672,19 +4608,19 @@
         <v>41214</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E168">
-        <v>-1.282051282051277E-2</v>
+        <v>-0.01282051282051277</v>
       </c>
       <c r="F168">
         <v>8.125</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>7.9</v>
       </c>
@@ -4692,19 +4628,19 @@
         <v>41244</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E169">
-        <v>2.5974025974025979E-2</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F169">
-        <v>8.0750000000000011</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.075000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>8</v>
       </c>
@@ -4712,19 +4648,19 @@
         <v>41275</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E170">
-        <v>1.265822784810111E-2</v>
+        <v>0.01265822784810111</v>
       </c>
       <c r="F170">
-        <v>8.0499999999999989</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.049999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>7.7</v>
       </c>
@@ -4732,19 +4668,19 @@
         <v>41306</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E171">
-        <v>-3.7499999999999978E-2</v>
+        <v>-0.03749999999999998</v>
       </c>
       <c r="F171">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -4752,19 +4688,19 @@
         <v>41334</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E172">
-        <v>-2.5974025974025979E-2</v>
+        <v>-0.02597402597402598</v>
       </c>
       <c r="F172">
-        <v>7.9416666666666673</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.941666666666667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>7.6</v>
       </c>
@@ -4772,19 +4708,19 @@
         <v>41365</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E173">
-        <v>1.3333333333333201E-2</v>
+        <v>0.0133333333333332</v>
       </c>
       <c r="F173">
-        <v>7.8916666666666666</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.891666666666667</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>7.5</v>
       </c>
@@ -4792,19 +4728,19 @@
         <v>41395</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E174">
-        <v>-1.315789473684204E-2</v>
+        <v>-0.01315789473684204</v>
       </c>
       <c r="F174">
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>7.5</v>
       </c>
@@ -4812,19 +4748,19 @@
         <v>41426</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>7.7749999999999986</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.774999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>7.3</v>
       </c>
@@ -4832,19 +4768,19 @@
         <v>41456</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E176">
-        <v>-2.6666666666666731E-2</v>
+        <v>-0.02666666666666673</v>
       </c>
       <c r="F176">
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.699999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>7.2</v>
       </c>
@@ -4852,19 +4788,19 @@
         <v>41487</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E177">
-        <v>-1.369863013698625E-2</v>
+        <v>-0.01369863013698625</v>
       </c>
       <c r="F177">
         <v>7.625</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>7.2</v>
       </c>
@@ -4872,19 +4808,19 @@
         <v>41518</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>7.5750000000000002</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>7.2</v>
       </c>
@@ -4892,19 +4828,19 @@
         <v>41548</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <v>7.5250000000000012</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.525000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>6.9</v>
       </c>
@@ -4912,19 +4848,19 @@
         <v>41579</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E180">
-        <v>-4.166666666666663E-2</v>
+        <v>-0.04166666666666663</v>
       </c>
       <c r="F180">
         <v>7.458333333333333</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>6.7</v>
       </c>
@@ -4932,19 +4868,19 @@
         <v>41609</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E181">
-        <v>-2.8985507246376829E-2</v>
+        <v>-0.02898550724637683</v>
       </c>
       <c r="F181">
-        <v>7.3583333333333334</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.358333333333333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>6.6</v>
       </c>
@@ -4952,19 +4888,19 @@
         <v>41640</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E182">
-        <v>-1.49253731343284E-2</v>
+        <v>-0.0149253731343284</v>
       </c>
       <c r="F182">
-        <v>7.2416666666666663</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.241666666666666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>6.7</v>
       </c>
@@ -4972,19 +4908,19 @@
         <v>41671</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E183">
-        <v>1.515151515151514E-2</v>
+        <v>0.01515151515151514</v>
       </c>
       <c r="F183">
-        <v>7.1583333333333323</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.158333333333332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>6.7</v>
       </c>
@@ -4992,19 +4928,19 @@
         <v>41699</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>7.0916666666666677</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.091666666666668</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>6.2</v>
       </c>
@@ -5012,19 +4948,19 @@
         <v>41730</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E185">
-        <v>-7.4626865671641784E-2</v>
+        <v>-0.07462686567164178</v>
       </c>
       <c r="F185">
-        <v>6.9750000000000014</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.975000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>6.3</v>
       </c>
@@ -5032,19 +4968,19 @@
         <v>41760</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E186">
-        <v>1.6129032258064498E-2</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="F186">
         <v>6.875</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>6.1</v>
       </c>
@@ -5052,19 +4988,19 @@
         <v>41791</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E187">
-        <v>-3.1746031746031737E-2</v>
+        <v>-0.03174603174603174</v>
       </c>
       <c r="F187">
-        <v>6.7583333333333329</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.758333333333333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>6.2</v>
       </c>
@@ -5072,19 +5008,19 @@
         <v>41821</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E188">
-        <v>1.6393442622950841E-2</v>
+        <v>0.01639344262295084</v>
       </c>
       <c r="F188">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>6.1</v>
       </c>
@@ -5092,19 +5028,19 @@
         <v>41852</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E189">
-        <v>-1.6129032258064609E-2</v>
+        <v>-0.01612903225806461</v>
       </c>
       <c r="F189">
-        <v>6.5750000000000002</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.575</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>5.9</v>
       </c>
@@ -5112,19 +5048,19 @@
         <v>41883</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E190">
-        <v>-3.2786885245901558E-2</v>
+        <v>-0.03278688524590156</v>
       </c>
       <c r="F190">
-        <v>6.4666666666666659</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.466666666666666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>5.7</v>
       </c>
@@ -5132,19 +5068,19 @@
         <v>41913</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E191">
-        <v>-3.3898305084745783E-2</v>
+        <v>-0.03389830508474578</v>
       </c>
       <c r="F191">
-        <v>6.3416666666666677</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.341666666666668</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>5.8</v>
       </c>
@@ -5152,19 +5088,19 @@
         <v>41944</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E192">
-        <v>1.754385964912264E-2</v>
+        <v>0.01754385964912264</v>
       </c>
       <c r="F192">
         <v>6.25</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>5.6</v>
       </c>
@@ -5172,19 +5108,19 @@
         <v>41974</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E193">
-        <v>-3.4482758620689717E-2</v>
+        <v>-0.03448275862068972</v>
       </c>
       <c r="F193">
-        <v>6.1583333333333341</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.158333333333334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>5.7</v>
       </c>
@@ -5192,19 +5128,19 @@
         <v>42005</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E194">
-        <v>1.7857142857143019E-2</v>
+        <v>0.01785714285714302</v>
       </c>
       <c r="F194">
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>5.5</v>
       </c>
@@ -5212,19 +5148,19 @@
         <v>42036</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E195">
-        <v>-3.5087719298245612E-2</v>
+        <v>-0.03508771929824561</v>
       </c>
       <c r="F195">
-        <v>5.9833333333333334</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.983333333333333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>5.4</v>
       </c>
@@ -5232,19 +5168,19 @@
         <v>42064</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E196">
-        <v>-1.818181818181808E-2</v>
+        <v>-0.01818181818181808</v>
       </c>
       <c r="F196">
         <v>5.875</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>5.4</v>
       </c>
@@ -5252,19 +5188,19 @@
         <v>42095</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <v>5.8083333333333336</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.808333333333334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>5.6</v>
       </c>
@@ -5272,19 +5208,19 @@
         <v>42125</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E198">
-        <v>3.7037037037036979E-2</v>
+        <v>0.03703703703703698</v>
       </c>
       <c r="F198">
         <v>5.75</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>5.3</v>
       </c>
@@ -5292,19 +5228,19 @@
         <v>42156</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E199">
-        <v>-5.3571428571428492E-2</v>
+        <v>-0.05357142857142849</v>
       </c>
       <c r="F199">
-        <v>5.6833333333333336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.683333333333334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>5.2</v>
       </c>
@@ -5312,39 +5248,39 @@
         <v>42186</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E200">
-        <v>-1.8867924528301772E-2</v>
+        <v>-0.01886792452830177</v>
       </c>
       <c r="F200">
-        <v>5.6000000000000014</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B201" s="2">
         <v>42217</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E201">
-        <v>-1.9230769230769381E-2</v>
+        <v>-0.01923076923076938</v>
       </c>
       <c r="F201">
-        <v>5.5166666666666666</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.516666666666667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>5</v>
       </c>
@@ -5352,19 +5288,19 @@
         <v>42248</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E202">
-        <v>-1.9607843137254829E-2</v>
+        <v>-0.01960784313725483</v>
       </c>
       <c r="F202">
-        <v>5.4416666666666664</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.441666666666666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>5</v>
       </c>
@@ -5372,39 +5308,39 @@
         <v>42278</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>5.3833333333333329</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.383333333333333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B204" s="2">
         <v>42309</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E204">
-        <v>2.0000000000000021E-2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F204">
-        <v>5.3250000000000002</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.325</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>5</v>
       </c>
@@ -5412,19 +5348,19 @@
         <v>42339</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E205">
-        <v>-1.9607843137254829E-2</v>
+        <v>-0.01960784313725483</v>
       </c>
       <c r="F205">
-        <v>5.2749999999999986</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.274999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>4.8</v>
       </c>
@@ -5432,39 +5368,39 @@
         <v>42370</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E206">
-        <v>-4.0000000000000042E-2</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="F206">
         <v>5.2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B207" s="2">
         <v>42401</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E207">
-        <v>2.0833333333333481E-2</v>
+        <v>0.02083333333333348</v>
       </c>
       <c r="F207">
-        <v>5.1499999999999986</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.149999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>5</v>
       </c>
@@ -5472,39 +5408,39 @@
         <v>42430</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E208">
-        <v>2.0408163265306149E-2</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="F208">
-        <v>5.1166666666666663</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.116666666666666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B209" s="2">
         <v>42461</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E209">
-        <v>2.0000000000000021E-2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F209">
-        <v>5.0916666666666668</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.091666666666667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>4.8</v>
       </c>
@@ -5512,39 +5448,39 @@
         <v>42491</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E210">
-        <v>-5.8823529411764719E-2</v>
+        <v>-0.05882352941176472</v>
       </c>
       <c r="F210">
-        <v>5.0249999999999986</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.024999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B211" s="2">
         <v>42522</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E211">
-        <v>2.0833333333333481E-2</v>
+        <v>0.02083333333333348</v>
       </c>
       <c r="F211">
-        <v>4.9916666666666663</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.991666666666666</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>4.8</v>
       </c>
@@ -5552,39 +5488,39 @@
         <v>42552</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E212">
-        <v>-2.040816326530626E-2</v>
+        <v>-0.02040816326530626</v>
       </c>
       <c r="F212">
         <v>4.958333333333333</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6">
       <c r="A213">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B213" s="2">
         <v>42583</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E213">
-        <v>2.0833333333333481E-2</v>
+        <v>0.02083333333333348</v>
       </c>
       <c r="F213">
-        <v>4.9416666666666664</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.941666666666666</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>5</v>
       </c>
@@ -5592,39 +5528,39 @@
         <v>42614</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E214">
-        <v>2.0408163265306149E-2</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="F214">
-        <v>4.9416666666666664</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.941666666666666</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B215" s="2">
         <v>42644</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E215">
-        <v>-1.999999999999991E-2</v>
+        <v>-0.01999999999999991</v>
       </c>
       <c r="F215">
-        <v>4.9333333333333327</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.933333333333333</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>4.7</v>
       </c>
@@ -5632,19 +5568,19 @@
         <v>42675</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E216">
-        <v>-4.081632653061229E-2</v>
+        <v>-0.04081632653061229</v>
       </c>
       <c r="F216">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>4.7</v>
       </c>
@@ -5652,10 +5588,10 @@
         <v>42705</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -5664,7 +5600,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>4.7</v>
       </c>
@@ -5672,99 +5608,99 @@
         <v>42736</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <v>4.8666666666666663</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.866666666666666</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B219" s="2">
         <v>42767</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E219">
-        <v>-2.1276595744680989E-2</v>
+        <v>-0.02127659574468099</v>
       </c>
       <c r="F219">
-        <v>4.8416666666666668</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.841666666666667</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B220" s="2">
         <v>42795</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E220">
-        <v>-4.3478260869565077E-2</v>
+        <v>-0.04347826086956508</v>
       </c>
       <c r="F220">
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6">
       <c r="A221">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="B221" s="2">
         <v>42826</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E221">
-        <v>2.2727272727272711E-2</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>4.7416666666666663</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.733333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B222" s="2">
         <v>42856</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E222">
-        <v>-2.222222222222214E-2</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>4.708333333333333</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>4.3</v>
       </c>
@@ -5772,19 +5708,19 @@
         <v>42887</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E223">
-        <v>-2.2727272727272822E-2</v>
+        <v>-0.02272727272727282</v>
       </c>
       <c r="F223">
-        <v>4.6583333333333341</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>4.3</v>
       </c>
@@ -5792,79 +5728,79 @@
         <v>42917</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>4.6166666666666663</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.608333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B225" s="2">
         <v>42948</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E225">
-        <v>2.325581395348841E-2</v>
+        <v>0.02325581395348841</v>
       </c>
       <c r="F225">
-        <v>4.5750000000000002</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.566666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B226" s="2">
         <v>42979</v>
       </c>
       <c r="C226" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E226">
-        <v>-4.5454545454545532E-2</v>
+        <v>-0.02272727272727282</v>
       </c>
       <c r="F226">
-        <v>4.5083333333333337</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.508333333333334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B227" s="2">
         <v>43009</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E227">
-        <v>-2.380952380952395E-2</v>
+        <v>-0.0232558139534883</v>
       </c>
       <c r="F227">
-        <v>4.4416666666666673</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>4.2</v>
       </c>
@@ -5872,39 +5808,39 @@
         <v>43040</v>
       </c>
       <c r="C228" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E228">
-        <v>2.439024390243905E-2</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>4.3999999999999986</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.408333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B229" s="2">
         <v>43070</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E229">
-        <v>-2.380952380952395E-2</v>
+        <v>-0.02380952380952395</v>
       </c>
       <c r="F229">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.358333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>4</v>
       </c>
@@ -5912,39 +5848,39 @@
         <v>43101</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E230">
-        <v>-2.4390243902438939E-2</v>
+        <v>-0.02439024390243894</v>
       </c>
       <c r="F230">
-        <v>4.291666666666667</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="B231" s="2">
         <v>43132</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E231">
-        <v>2.4999999999999911E-2</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="F231">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.258333333333334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>4</v>
       </c>
@@ -5952,19 +5888,19 @@
         <v>43160</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E232">
-        <v>-2.4390243902438939E-2</v>
+        <v>-0.02439024390243894</v>
       </c>
       <c r="F232">
-        <v>4.2166666666666668</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.225000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>4</v>
       </c>
@@ -5972,19 +5908,19 @@
         <v>43191</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <v>4.1749999999999998</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.191666666666667</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>3.8</v>
       </c>
@@ -5992,19 +5928,19 @@
         <v>43221</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E234">
-        <v>-5.0000000000000037E-2</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F234">
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.141666666666667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>4</v>
       </c>
@@ -6012,19 +5948,19 @@
         <v>43252</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E235">
-        <v>5.2631578947368363E-2</v>
+        <v>0.05263157894736836</v>
       </c>
       <c r="F235">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.116666666666666</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>3.8</v>
       </c>
@@ -6032,19 +5968,19 @@
         <v>43282</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E236">
-        <v>-5.0000000000000037E-2</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F236">
-        <v>4.0583333333333336</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.075</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>3.8</v>
       </c>
@@ -6052,19 +5988,19 @@
         <v>43313</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237">
-        <v>4.0083333333333337</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.024999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>3.7</v>
       </c>
@@ -6072,19 +6008,19 @@
         <v>43344</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E238">
-        <v>-2.631578947368407E-2</v>
+        <v>-0.02631578947368407</v>
       </c>
       <c r="F238">
-        <v>3.9666666666666668</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>3.8</v>
       </c>
@@ -6092,19 +6028,19 @@
         <v>43374</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D239" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E239">
-        <v>2.702702702702697E-2</v>
+        <v>0.02702702702702697</v>
       </c>
       <c r="F239">
         <v>3.941666666666666</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>3.8</v>
       </c>
@@ -6112,19 +6048,19 @@
         <v>43405</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
-        <v>3.9083333333333332</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.908333333333333</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>3.9</v>
       </c>
@@ -6132,19 +6068,19 @@
         <v>43435</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E241">
-        <v>2.6315789473684289E-2</v>
+        <v>0.02631578947368429</v>
       </c>
       <c r="F241">
-        <v>3.8916666666666671</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.891666666666666</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>4</v>
       </c>
@@ -6152,19 +6088,19 @@
         <v>43466</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E242">
-        <v>2.5641025641025769E-2</v>
+        <v>0.02564102564102577</v>
       </c>
       <c r="F242">
-        <v>3.8916666666666671</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.891666666666667</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>3.8</v>
       </c>
@@ -6172,19 +6108,19 @@
         <v>43497</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E243">
-        <v>-5.0000000000000037E-2</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F243">
-        <v>3.8666666666666671</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.866666666666667</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>3.8</v>
       </c>
@@ -6192,10 +6128,10 @@
         <v>43525</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D244" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6204,47 +6140,47 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6">
       <c r="A245">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="B245" s="2">
         <v>43556</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E245">
-        <v>-2.631578947368407E-2</v>
+        <v>-0.05263157894736836</v>
       </c>
       <c r="F245">
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.816666666666666</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="B246" s="2">
         <v>43586</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D246" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
       <c r="F246">
-        <v>3.8166666666666669</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>3.6</v>
       </c>
@@ -6252,39 +6188,39 @@
         <v>43617</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D247" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E247">
-        <v>-2.7027027027027081E-2</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>3.7833333333333332</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.766666666666667</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B248" s="2">
         <v>43647</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.0277777777777779</v>
       </c>
       <c r="F248">
-        <v>3.7666666666666662</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.758333333333333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>3.7</v>
       </c>
@@ -6292,19 +6228,19 @@
         <v>43678</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D249" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E249">
-        <v>2.7777777777777901E-2</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>3.7583333333333329</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>3.5</v>
       </c>
@@ -6312,19 +6248,19 @@
         <v>43709</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D250" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E250">
-        <v>-5.4054054054054057E-2</v>
+        <v>-0.05405405405405406</v>
       </c>
       <c r="F250">
-        <v>3.7416666666666671</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.733333333333333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>3.6</v>
       </c>
@@ -6332,19 +6268,19 @@
         <v>43739</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E251">
-        <v>2.8571428571428688E-2</v>
+        <v>0.02857142857142869</v>
       </c>
       <c r="F251">
-        <v>3.7250000000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.716666666666667</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>3.6</v>
       </c>
@@ -6352,19 +6288,19 @@
         <v>43770</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
       <c r="F252">
-        <v>3.708333333333333</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.700000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>3.6</v>
       </c>
@@ -6372,19 +6308,19 @@
         <v>43800</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
       <c r="F253">
-        <v>3.6833333333333331</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.675</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>3.5</v>
       </c>
@@ -6392,19 +6328,19 @@
         <v>43831</v>
       </c>
       <c r="C254" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E254">
-        <v>-2.777777777777779E-2</v>
+        <v>-0.02777777777777779</v>
       </c>
       <c r="F254">
-        <v>3.6416666666666662</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.633333333333333</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>3.5</v>
       </c>
@@ -6412,119 +6348,119 @@
         <v>43862</v>
       </c>
       <c r="C255" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D255" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
       <c r="F255">
-        <v>3.6166666666666671</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.608333333333333</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B256" s="2">
         <v>43891</v>
       </c>
       <c r="C256" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D256" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E256">
-        <v>0.25714285714285728</v>
+        <v>0.2571428571428573</v>
       </c>
       <c r="F256">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.658333333333334</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="B257" s="2">
         <v>43922</v>
       </c>
       <c r="C257" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D257" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E257">
-        <v>2.3636363636363629</v>
+        <v>2.34090909090909</v>
       </c>
       <c r="F257">
-        <v>4.5916666666666668</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="B258" s="2">
         <v>43952</v>
       </c>
       <c r="C258" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D258" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E258">
-        <v>-0.1013513513513513</v>
+        <v>-0.1020408163265306</v>
       </c>
       <c r="F258">
-        <v>5.3916666666666666</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.383333333333333</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="B259" s="2">
         <v>43983</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E259">
-        <v>-0.1654135338345866</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="F259">
-        <v>6.0166666666666666</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="B260" s="2">
         <v>44013</v>
       </c>
       <c r="C260" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D260" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E260">
-        <v>-8.1081081081081141E-2</v>
+        <v>-0.07272727272727275</v>
       </c>
       <c r="F260">
-        <v>6.5666666666666664</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.541666666666667</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>8.4</v>
       </c>
@@ -6532,39 +6468,39 @@
         <v>44044</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E261">
-        <v>-0.17647058823529399</v>
+        <v>-0.176470588235294</v>
       </c>
       <c r="F261">
-        <v>6.958333333333333</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.933333333333334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="B262" s="2">
         <v>44075</v>
       </c>
       <c r="C262" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E262">
-        <v>-7.1428571428571508E-2</v>
+        <v>-0.05952380952380953</v>
       </c>
       <c r="F262">
-        <v>7.3166666666666673</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.300000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>6.9</v>
       </c>
@@ -6572,19 +6508,19 @@
         <v>44105</v>
       </c>
       <c r="C263" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D263" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E263">
-        <v>-0.11538461538461529</v>
+        <v>-0.1265822784810127</v>
       </c>
       <c r="F263">
-        <v>7.5916666666666659</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.574999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>6.7</v>
       </c>
@@ -6592,19 +6528,19 @@
         <v>44136</v>
       </c>
       <c r="C264" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D264" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E264">
-        <v>-2.8985507246376829E-2</v>
+        <v>-0.02898550724637683</v>
       </c>
       <c r="F264">
-        <v>7.8500000000000014</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>6.7</v>
       </c>
@@ -6612,39 +6548,39 @@
         <v>44166</v>
       </c>
       <c r="C265" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D265" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
       <c r="F265">
-        <v>8.1083333333333325</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.091666666666667</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="B266" s="2">
         <v>44197</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E266">
-        <v>-5.9701492537313487E-2</v>
+        <v>-0.04477611940298509</v>
       </c>
       <c r="F266">
-        <v>8.3416666666666668</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.333333333333334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>6.2</v>
       </c>
@@ -6652,19 +6588,19 @@
         <v>44228</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D267" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E267">
-        <v>-1.587301587301582E-2</v>
+        <v>-0.03125</v>
       </c>
       <c r="F267">
-        <v>8.5666666666666664</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.558333333333332</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>6</v>
       </c>
@@ -6672,39 +6608,39 @@
         <v>44256</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D268" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E268">
-        <v>-3.2258064516129108E-2</v>
+        <v>-0.03225806451612911</v>
       </c>
       <c r="F268">
-        <v>8.7000000000000011</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.691666666666666</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="B269" s="2">
         <v>44287</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D269" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E269">
-        <v>1.6666666666666611E-2</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>7.9749999999999988</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.966666666666666</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>5.8</v>
       </c>
@@ -6712,19 +6648,19 @@
         <v>44317</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E270">
-        <v>-4.9180327868852403E-2</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="F270">
-        <v>7.3499999999999988</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.350000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>5.9</v>
       </c>
@@ -6732,19 +6668,19 @@
         <v>44348</v>
       </c>
       <c r="C271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D271" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E271">
-        <v>1.724137931034497E-2</v>
+        <v>0.01724137931034497</v>
       </c>
       <c r="F271">
-        <v>6.916666666666667</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.925</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>5.4</v>
       </c>
@@ -6752,19 +6688,19 @@
         <v>44378</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D272" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E272">
-        <v>-8.4745762711864403E-2</v>
+        <v>-0.0847457627118644</v>
       </c>
       <c r="F272">
-        <v>6.5166666666666666</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.525000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>5.2</v>
       </c>
@@ -6772,59 +6708,59 @@
         <v>44409</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D273" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E273">
-        <v>-3.703703703703709E-2</v>
+        <v>-0.03703703703703709</v>
       </c>
       <c r="F273">
-        <v>6.2500000000000009</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.258333333333334</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B274" s="2">
         <v>44440</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D274" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E274">
-        <v>-7.6923076923076983E-2</v>
+        <v>-0.09615384615384615</v>
       </c>
       <c r="F274">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.991666666666667</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B275" s="2">
         <v>44470</v>
       </c>
       <c r="C275" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D275" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E275">
-        <v>-4.1666666666666741E-2</v>
+        <v>-0.02127659574468099</v>
       </c>
       <c r="F275">
-        <v>5.8083333333333336</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.800000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>4.2</v>
       </c>
@@ -6832,21 +6768,39 @@
         <v>44501</v>
       </c>
       <c r="C276" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D276" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E276">
-        <v>-8.6956521739130377E-2</v>
+        <v>-0.08695652173913038</v>
       </c>
       <c r="F276">
-        <v>5.6000000000000014</v>
+        <v>5.591666666666668</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>3.9</v>
+      </c>
+      <c r="B277" s="2">
+        <v>44531</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>304</v>
+      </c>
+      <c r="E277">
+        <v>-0.07142857142857151</v>
+      </c>
+      <c r="F277">
+        <v>5.358333333333333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>